--- a/data/ensemble_test_generator.xlsx
+++ b/data/ensemble_test_generator.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600"/>
+    <workbookView xWindow="480" yWindow="105" windowWidth="27795" windowHeight="12600" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="overlap" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
@@ -3767,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:V50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7183,7 +7183,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10598,7 +10598,7 @@
   <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B1" sqref="B1:B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10609,87 +10609,87 @@
       </c>
       <c r="B1">
         <f ca="1">RANDBETWEEN(0,19)</f>
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C1">
         <f ca="1">RAND()</f>
-        <v>1.0267718411550719E-3</v>
+        <v>0.48101823928343945</v>
       </c>
       <c r="D1">
         <f t="shared" ref="D1:V14" ca="1" si="0">RAND()</f>
-        <v>0.55599167623248713</v>
+        <v>0.62140334970255706</v>
       </c>
       <c r="E1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20169237667614981</v>
+        <v>0.63940210659132302</v>
       </c>
       <c r="F1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81717746982475958</v>
+        <v>0.87444224258663561</v>
       </c>
       <c r="G1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.64510223682757883</v>
+        <v>0.42332798774500557</v>
       </c>
       <c r="H1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72806333060346473</v>
+        <v>7.8621415150584961E-2</v>
       </c>
       <c r="I1">
         <f t="shared" ca="1" si="0"/>
-        <v>8.3186281986646904E-3</v>
+        <v>0.36298519939049012</v>
       </c>
       <c r="J1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30924407664013664</v>
+        <v>0.79870854604368846</v>
       </c>
       <c r="K1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89398609261524487</v>
+        <v>1.1965463580718705E-3</v>
       </c>
       <c r="L1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88853158606292637</v>
+        <v>0.49789744332911567</v>
       </c>
       <c r="M1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87105970018026257</v>
+        <v>0.15749909924103433</v>
       </c>
       <c r="N1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96380240334398948</v>
+        <v>0.87567686328546412</v>
       </c>
       <c r="O1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83972036580656195</v>
+        <v>2.4242520340968077E-2</v>
       </c>
       <c r="P1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14601312193643523</v>
+        <v>0.93750818836110006</v>
       </c>
       <c r="Q1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22334176162767749</v>
+        <v>0.24179454482452745</v>
       </c>
       <c r="R1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96922173347972251</v>
+        <v>0.44859762981798312</v>
       </c>
       <c r="S1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5616597348971798</v>
+        <v>0.78168726618786177</v>
       </c>
       <c r="T1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20317453901160454</v>
+        <v>0.69855298631398877</v>
       </c>
       <c r="U1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61920306836758632</v>
+        <v>0.1223464416398895</v>
       </c>
       <c r="V1">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84419360914157582</v>
+        <v>0.66700917858799591</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -10697,88 +10697,88 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <f t="shared" ref="B2:B50" ca="1" si="1">RANDBETWEEN(0,20)</f>
-        <v>11</v>
+        <f t="shared" ref="B2:B50" ca="1" si="1">RANDBETWEEN(0,19)</f>
+        <v>3</v>
       </c>
       <c r="C2">
-        <f t="shared" ref="C2:R33" ca="1" si="2">RAND()</f>
-        <v>0.39566951109066695</v>
+        <f t="shared" ref="C2:R30" ca="1" si="2">RAND()</f>
+        <v>0.28709550363597747</v>
       </c>
       <c r="D2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42868029793547602</v>
+        <v>0.48406982195698001</v>
       </c>
       <c r="E2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82362862719842689</v>
+        <v>0.58084057682139523</v>
       </c>
       <c r="F2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84451977824734958</v>
+        <v>0.28105451500205714</v>
       </c>
       <c r="G2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52618536347673317</v>
+        <v>0.21681809538537544</v>
       </c>
       <c r="H2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29935973688072393</v>
+        <v>0.32439866462502509</v>
       </c>
       <c r="I2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4239258661758174</v>
+        <v>0.58375925302363696</v>
       </c>
       <c r="J2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31405369817664641</v>
+        <v>0.91684336816586587</v>
       </c>
       <c r="K2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79984016547574444</v>
+        <v>3.2859054018665734E-2</v>
       </c>
       <c r="L2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73369345982905643</v>
+        <v>0.70035597188696086</v>
       </c>
       <c r="M2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69598828163516624</v>
+        <v>0.1790952635393086</v>
       </c>
       <c r="N2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.35153132679374222</v>
+        <v>0.19161069812967757</v>
       </c>
       <c r="O2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37094706153441381</v>
+        <v>0.79382774941525047</v>
       </c>
       <c r="P2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81197730838549842</v>
+        <v>0.40728938813016435</v>
       </c>
       <c r="Q2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40422563640115416</v>
+        <v>0.11718835451723553</v>
       </c>
       <c r="R2">
         <f t="shared" ca="1" si="0"/>
-        <v>1.9573488013180262E-2</v>
+        <v>0.44419206537299505</v>
       </c>
       <c r="S2">
         <f t="shared" ca="1" si="0"/>
-        <v>4.9280763097737101E-2</v>
+        <v>0.14833087022051594</v>
       </c>
       <c r="T2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19314733493059477</v>
+        <v>0.6795003506456051</v>
       </c>
       <c r="U2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27575715842303439</v>
+        <v>0.21298472232986565</v>
       </c>
       <c r="V2">
         <f t="shared" ca="1" si="0"/>
-        <v>0.79183880401989881</v>
+        <v>0.99339555223680998</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -10787,87 +10787,87 @@
       </c>
       <c r="B3">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <f t="shared" ca="1" si="2"/>
-        <v>0.126238331610661</v>
+        <v>0.3848662401923344</v>
       </c>
       <c r="D3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.12915457308244549</v>
+        <v>0.57339940794291067</v>
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15924456820216337</v>
+        <v>3.1238589025706309E-2</v>
       </c>
       <c r="F3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52804189715079308</v>
+        <v>0.83626342134319243</v>
       </c>
       <c r="G3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48021800012700311</v>
+        <v>0.84027234760487202</v>
       </c>
       <c r="H3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.26488601717225158</v>
+        <v>0.60107322209563618</v>
       </c>
       <c r="I3">
         <f t="shared" ca="1" si="0"/>
-        <v>9.2676670097248559E-2</v>
+        <v>0.11713521366687407</v>
       </c>
       <c r="J3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15730518681677286</v>
+        <v>0.38060822417736506</v>
       </c>
       <c r="K3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30914898643310251</v>
+        <v>0.80697267849403642</v>
       </c>
       <c r="L3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32095071330656655</v>
+        <v>7.2914210934563295E-2</v>
       </c>
       <c r="M3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40746888523594882</v>
+        <v>0.7734062438628444</v>
       </c>
       <c r="N3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91789325620049567</v>
+        <v>0.11295606468303676</v>
       </c>
       <c r="O3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.69147611949100307</v>
+        <v>0.74845599302652921</v>
       </c>
       <c r="P3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2585027725090252</v>
+        <v>0.89905789010651649</v>
       </c>
       <c r="Q3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.24169585831550477</v>
+        <v>0.42705783780969653</v>
       </c>
       <c r="R3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7816788028214664</v>
+        <v>0.46132841693947912</v>
       </c>
       <c r="S3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19837855636128687</v>
+        <v>0.35903017427181116</v>
       </c>
       <c r="T3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89398740267829258</v>
+        <v>0.77452080303246296</v>
       </c>
       <c r="U3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53797390031590653</v>
+        <v>0.40288988907151246</v>
       </c>
       <c r="V3">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83056309546807283</v>
+        <v>0.79752840865976238</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -10876,87 +10876,87 @@
       </c>
       <c r="B4">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7389512483267201</v>
+        <v>0.81969221912761858</v>
       </c>
       <c r="D4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.991879643596557</v>
+        <v>0.16414210925079575</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4490088057805568</v>
+        <v>0.17740152301280243</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41340375216475378</v>
+        <v>0.13792324051791716</v>
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.41682912420067431</v>
+        <v>0.56440010698989396</v>
       </c>
       <c r="H4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14759639649315304</v>
+        <v>0.92431015515808923</v>
       </c>
       <c r="I4">
         <f t="shared" ca="1" si="0"/>
-        <v>5.8995803505281552E-2</v>
+        <v>0.73779012776899555</v>
       </c>
       <c r="J4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1696749212985712</v>
+        <v>0.67270663853312829</v>
       </c>
       <c r="K4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8733326494437097</v>
+        <v>0.9642159931453248</v>
       </c>
       <c r="L4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17815627991283423</v>
+        <v>6.3542421272847593E-2</v>
       </c>
       <c r="M4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62956340754013029</v>
+        <v>0.65051268845971399</v>
       </c>
       <c r="N4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38789270789845753</v>
+        <v>0.31651924332779413</v>
       </c>
       <c r="O4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44665097795578379</v>
+        <v>0.20122448563463624</v>
       </c>
       <c r="P4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94059107352670746</v>
+        <v>0.9148360210189459</v>
       </c>
       <c r="Q4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55888786485594977</v>
+        <v>0.94937255742222049</v>
       </c>
       <c r="R4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23904953304333876</v>
+        <v>0.5697317888834289</v>
       </c>
       <c r="S4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47289905395860354</v>
+        <v>0.86375630192319264</v>
       </c>
       <c r="T4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98499115778495794</v>
+        <v>0.96148909400806926</v>
       </c>
       <c r="U4">
         <f t="shared" ca="1" si="0"/>
-        <v>6.6373814214427562E-2</v>
+        <v>0.73446173562298567</v>
       </c>
       <c r="V4">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86549682472266332</v>
+        <v>0.44741617951271873</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.25">
@@ -10969,83 +10969,83 @@
       </c>
       <c r="C5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88168010296271615</v>
+        <v>0.73921652012158412</v>
       </c>
       <c r="D5">
         <f t="shared" ca="1" si="0"/>
-        <v>4.849973212094949E-2</v>
+        <v>0.34160463799676888</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83329612675457665</v>
+        <v>0.23035450760247622</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36984875378084014</v>
+        <v>0.22405377977087748</v>
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97017768832472462</v>
+        <v>0.41011760936404074</v>
       </c>
       <c r="H5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39810552480839501</v>
+        <v>0.8450328041684525</v>
       </c>
       <c r="I5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10791886346105828</v>
+        <v>0.46834439751354229</v>
       </c>
       <c r="J5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62988980579388421</v>
+        <v>0.27435707974303014</v>
       </c>
       <c r="K5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78265817245132574</v>
+        <v>0.84928556020290291</v>
       </c>
       <c r="L5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97331821828794163</v>
+        <v>0.74713959900917204</v>
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87563926851403406</v>
+        <v>0.77244608073487731</v>
       </c>
       <c r="N5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49916967605868678</v>
+        <v>0.38481967333384215</v>
       </c>
       <c r="O5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.231222104284181</v>
+        <v>0.2146948120040888</v>
       </c>
       <c r="P5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73538588513338121</v>
+        <v>0.74288479109170225</v>
       </c>
       <c r="Q5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95128593156105345</v>
+        <v>0.36083054262888115</v>
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49076463658087499</v>
+        <v>0.43799285928224152</v>
       </c>
       <c r="S5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32634521886418366</v>
+        <v>0.9668479318204245</v>
       </c>
       <c r="T5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99297217518793224</v>
+        <v>1.2559755288503616E-2</v>
       </c>
       <c r="U5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99317353163711697</v>
+        <v>0.47033645125524026</v>
       </c>
       <c r="V5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19666940054628401</v>
+        <v>0.15108335669296613</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
@@ -11054,87 +11054,87 @@
       </c>
       <c r="B6">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35091208261156415</v>
+        <v>0.22434211653007452</v>
       </c>
       <c r="D6">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4708982734501053E-2</v>
+        <v>0.21721264416005448</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.58778195138491807</v>
+        <v>0.96582625715427461</v>
       </c>
       <c r="F6">
         <f t="shared" ca="1" si="0"/>
-        <v>8.72553371750594E-2</v>
+        <v>0.90313018825474756</v>
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31486581044946882</v>
+        <v>4.1470944450607283E-2</v>
       </c>
       <c r="H6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8632218899615941</v>
+        <v>0.21572051187640928</v>
       </c>
       <c r="I6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89919249114601574</v>
+        <v>0.48578640468414258</v>
       </c>
       <c r="J6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6639798422731622</v>
+        <v>2.0140492938081955E-2</v>
       </c>
       <c r="K6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17450471042424354</v>
+        <v>0.59493539252249572</v>
       </c>
       <c r="L6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34525769607482093</v>
+        <v>0.46233162502960201</v>
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57052253757570037</v>
+        <v>0.83294849569537821</v>
       </c>
       <c r="N6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60772488293263949</v>
+        <v>0.47919761484153356</v>
       </c>
       <c r="O6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18916570612637296</v>
+        <v>0.37638213253400499</v>
       </c>
       <c r="P6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.66129362569955374</v>
+        <v>0.98360799494725359</v>
       </c>
       <c r="Q6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.32403742554577297</v>
+        <v>0.53826812863109208</v>
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="0"/>
-        <v>3.9675502089801418E-2</v>
+        <v>2.6297203475498354E-2</v>
       </c>
       <c r="S6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63853301237120541</v>
+        <v>0.50615647168114275</v>
       </c>
       <c r="T6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60959428883210853</v>
+        <v>0.20059229640576048</v>
       </c>
       <c r="U6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5693608083576247</v>
+        <v>0.38023091133657283</v>
       </c>
       <c r="V6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.0608650232912842E-2</v>
+        <v>0.27858618585953399</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -11143,87 +11143,87 @@
       </c>
       <c r="B7">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46146494749048361</v>
+        <v>5.0767001650594668E-2</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88488325865440554</v>
+        <v>0.24939488465327864</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53464842110082278</v>
+        <v>0.98372553707451127</v>
       </c>
       <c r="F7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89299639390228647</v>
+        <v>0.96926563596457305</v>
       </c>
       <c r="G7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9986401426688486</v>
+        <v>6.5607321334709146E-2</v>
       </c>
       <c r="H7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76769539245702945</v>
+        <v>0.60954548350849835</v>
       </c>
       <c r="I7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92541410688687487</v>
+        <v>0.83976974089145262</v>
       </c>
       <c r="J7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5694756478673616</v>
+        <v>0.58681196002620217</v>
       </c>
       <c r="K7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72540861713458948</v>
+        <v>0.155139742316451</v>
       </c>
       <c r="L7">
         <f t="shared" ca="1" si="0"/>
-        <v>6.5249959549613101E-2</v>
+        <v>0.9456892995492624</v>
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50211674633263947</v>
+        <v>0.40607388202140093</v>
       </c>
       <c r="N7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72025335611775587</v>
+        <v>0.9096762990402123</v>
       </c>
       <c r="O7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63062163931322668</v>
+        <v>0.31922549102850639</v>
       </c>
       <c r="P7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7901512324540847</v>
+        <v>0.69248155616713558</v>
       </c>
       <c r="Q7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16772742149033815</v>
+        <v>0.30255489697909788</v>
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13643807108975148</v>
+        <v>0.35899458346061974</v>
       </c>
       <c r="S7">
         <f t="shared" ca="1" si="0"/>
-        <v>4.6630886364824931E-2</v>
+        <v>4.8967047556749521E-2</v>
       </c>
       <c r="T7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.30790172497832913</v>
+        <v>2.6748758683662333E-3</v>
       </c>
       <c r="U7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.98468112029277299</v>
+        <v>5.4982327752647553E-2</v>
       </c>
       <c r="V7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84358803451490993</v>
+        <v>0.62306741150630751</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -11236,83 +11236,83 @@
       </c>
       <c r="C8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20793606513951435</v>
+        <v>0.29530978434316912</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.92408839317777491</v>
+        <v>0.31966755788951706</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1677490778313836</v>
+        <v>0.90959200966379194</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21391417961913017</v>
+        <v>7.3810890202523627E-3</v>
       </c>
       <c r="G8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91992903983969421</v>
+        <v>0.2355642064641903</v>
       </c>
       <c r="H8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34467066128859147</v>
+        <v>0.78243758880323389</v>
       </c>
       <c r="I8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1289410017392626</v>
+        <v>0.39645173292799807</v>
       </c>
       <c r="J8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16143924297128442</v>
+        <v>0.99033179352271727</v>
       </c>
       <c r="K8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85400213419089666</v>
+        <v>0.38147915205917027</v>
       </c>
       <c r="L8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50318934355886846</v>
+        <v>0.5034935243047628</v>
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48973071258325673</v>
+        <v>0.14441093383983639</v>
       </c>
       <c r="N8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.95979681884590551</v>
+        <v>0.60723634322960862</v>
       </c>
       <c r="O8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47182908221146447</v>
+        <v>6.1444265522599739E-2</v>
       </c>
       <c r="P8">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2987882158265194E-5</v>
+        <v>0.60781579258193053</v>
       </c>
       <c r="Q8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56001642465236245</v>
+        <v>0.48753595736875255</v>
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81380284410095471</v>
+        <v>0.91896993074315525</v>
       </c>
       <c r="S8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9336598729668889</v>
+        <v>0.11777014430638544</v>
       </c>
       <c r="T8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94552912451250237</v>
+        <v>0.90355415697869723</v>
       </c>
       <c r="U8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11298215823121172</v>
+        <v>0.19965957757207398</v>
       </c>
       <c r="V8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72355903000319299</v>
+        <v>9.5685441192652987E-2</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -11321,87 +11321,87 @@
       </c>
       <c r="B9">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C9">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55899807920478783</v>
+        <v>1.8340454676645357E-2</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54362403920042035</v>
+        <v>0.5348605135957486</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7930241152190235</v>
+        <v>0.42576875577793694</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.22855113231517254</v>
+        <v>0.77594511930230892</v>
       </c>
       <c r="G9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99683558482397516</v>
+        <v>8.7586462063612203E-2</v>
       </c>
       <c r="H9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94502643731943636</v>
+        <v>0.37637682469699052</v>
       </c>
       <c r="I9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54249514900140605</v>
+        <v>0.71906149137185804</v>
       </c>
       <c r="J9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83573985790878824</v>
+        <v>0.75562090028401696</v>
       </c>
       <c r="K9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14225934340806712</v>
+        <v>0.3809277820727246</v>
       </c>
       <c r="L9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38065486625381972</v>
+        <v>9.6438661241874168E-2</v>
       </c>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.67861772684900079</v>
+        <v>2.1048286470673139E-2</v>
       </c>
       <c r="N9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.44441932694519648</v>
+        <v>0.16954318014259984</v>
       </c>
       <c r="O9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75665315495659513</v>
+        <v>0.55635259426526107</v>
       </c>
       <c r="P9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.93013859478305627</v>
+        <v>0.31321806402075081</v>
       </c>
       <c r="Q9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37585472752566529</v>
+        <v>0.26073597771931778</v>
       </c>
       <c r="R9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11914800283341731</v>
+        <v>0.12506846591203791</v>
       </c>
       <c r="S9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.71178615118893807</v>
+        <v>0.95286020745008093</v>
       </c>
       <c r="T9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78343646053882521</v>
+        <v>0.61128773673474934</v>
       </c>
       <c r="U9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57709780337418926</v>
+        <v>0.88427606278764459</v>
       </c>
       <c r="V9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46396466645667844</v>
+        <v>0.63739172673488331</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -11410,87 +11410,87 @@
       </c>
       <c r="B10">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37834237831023243</v>
+        <v>0.35611733059778039</v>
       </c>
       <c r="D10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.61570919632984633</v>
+        <v>0.41568331014414184</v>
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75024457233050024</v>
+        <v>0.81399578530788119</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.94446535373456186</v>
+        <v>0.31471258992543394</v>
       </c>
       <c r="G10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39596733910695403</v>
+        <v>0.43794785943825643</v>
       </c>
       <c r="H10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.72193175680770583</v>
+        <v>0.51812785681346629</v>
       </c>
       <c r="I10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52389111397919497</v>
+        <v>0.17896326504807791</v>
       </c>
       <c r="J10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.16217091195046451</v>
+        <v>0.52059896270976769</v>
       </c>
       <c r="K10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78508774309113138</v>
+        <v>0.4016859915484351</v>
       </c>
       <c r="L10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84376644380769927</v>
+        <v>0.46305097555214991</v>
       </c>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82545295415746378</v>
+        <v>0.57788007370412942</v>
       </c>
       <c r="N10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15547838873206921</v>
+        <v>0.7503965004950246</v>
       </c>
       <c r="O10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38724558534713138</v>
+        <v>0.89731562721698432</v>
       </c>
       <c r="P10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23083280702456088</v>
+        <v>9.7473859007580099E-2</v>
       </c>
       <c r="Q10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49063830616402326</v>
+        <v>0.89039003926557825</v>
       </c>
       <c r="R10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85030802092099167</v>
+        <v>5.1699160473115624E-2</v>
       </c>
       <c r="S10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38625862152780943</v>
+        <v>0.99122343541606239</v>
       </c>
       <c r="T10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.11191795624951861</v>
+        <v>0.13358840456379661</v>
       </c>
       <c r="U10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84775199094161791</v>
+        <v>0.30165757167015206</v>
       </c>
       <c r="V10">
         <f t="shared" ca="1" si="0"/>
-        <v>8.1804211689236461E-2</v>
+        <v>0.74773396972935058</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -11499,87 +11499,87 @@
       </c>
       <c r="B11">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C11">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41099530335319379</v>
+        <v>0.51182479632217304</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.23608483197409091</v>
+        <v>0.3765439504502559</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63882292837026566</v>
+        <v>0.8821749705505828</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89579057327136535</v>
+        <v>0.71067520887593483</v>
       </c>
       <c r="G11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84089868709462745</v>
+        <v>5.8180124219487039E-2</v>
       </c>
       <c r="H11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63092242923565356</v>
+        <v>0.37123713265260716</v>
       </c>
       <c r="I11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9516694761940766</v>
+        <v>0.35973071359342668</v>
       </c>
       <c r="J11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.2231055543402124</v>
+        <v>0.39289823965970394</v>
       </c>
       <c r="K11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8564919430916711E-2</v>
+        <v>0.3901527982391978</v>
       </c>
       <c r="L11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39062036356232843</v>
+        <v>0.63952190446180202</v>
       </c>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.4333709542023509E-2</v>
+        <v>0.20704429631861321</v>
       </c>
       <c r="N11">
         <f t="shared" ca="1" si="0"/>
-        <v>8.4862556194547301E-2</v>
+        <v>0.91184880342601693</v>
       </c>
       <c r="O11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34918450800641831</v>
+        <v>0.95097459336099244</v>
       </c>
       <c r="P11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29735485620355828</v>
+        <v>0.9454940341127599</v>
       </c>
       <c r="Q11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84643953747641154</v>
+        <v>0.417069136552361</v>
       </c>
       <c r="R11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.29570209934522085</v>
+        <v>4.0649741769536063E-2</v>
       </c>
       <c r="S11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27089039640407619</v>
+        <v>0.63661650068738518</v>
       </c>
       <c r="T11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.84056488547227237</v>
+        <v>0.68297025296221991</v>
       </c>
       <c r="U11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.49603613230444843</v>
+        <v>0.27531397375285127</v>
       </c>
       <c r="V11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86083011724681646</v>
+        <v>0.16978142696410048</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -11588,87 +11588,87 @@
       </c>
       <c r="B12">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C12">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15816358209294912</v>
+        <v>0.59482555179998953</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76920796596871965</v>
+        <v>0.45362842857254171</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.47584421900821594</v>
+        <v>0.91248334158961375</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20151998402578997</v>
+        <v>0.62028992169312203</v>
       </c>
       <c r="G12">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1476738760869241E-2</v>
+        <v>9.4542487415802956E-2</v>
       </c>
       <c r="H12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28969037602166969</v>
+        <v>9.3273348384607879E-2</v>
       </c>
       <c r="I12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21436856030634777</v>
+        <v>0.47280643538200517</v>
       </c>
       <c r="J12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31809480348719754</v>
+        <v>0.88844755873543857</v>
       </c>
       <c r="K12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.56559578456235915</v>
+        <v>0.42315732588307098</v>
       </c>
       <c r="L12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.63679122704267987</v>
+        <v>0.80044350359207517</v>
       </c>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90771044312985172</v>
+        <v>0.64556296427996929</v>
       </c>
       <c r="N12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.59896193747201409</v>
+        <v>0.86214269636447893</v>
       </c>
       <c r="O12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87301632464034784</v>
+        <v>0.8861406112410779</v>
       </c>
       <c r="P12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.46090846072486025</v>
+        <v>0.58952986559428855</v>
       </c>
       <c r="Q12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.97200908544524778</v>
+        <v>0.52174322532129702</v>
       </c>
       <c r="R12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1470863837183497</v>
+        <v>0.64144168278845015</v>
       </c>
       <c r="S12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17990864885437829</v>
+        <v>0.4726266679564306</v>
       </c>
       <c r="T12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99650788528059897</v>
+        <v>0.55037083874216697</v>
       </c>
       <c r="U12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.379048744026798</v>
+        <v>0.36839751985060132</v>
       </c>
       <c r="V12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.18153482691662814</v>
+        <v>0.46112920692856341</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -11677,87 +11677,87 @@
       </c>
       <c r="B13">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C13">
         <f t="shared" ca="1" si="2"/>
-        <v>8.257280665898481E-3</v>
+        <v>0.42837829288158935</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17049438134396067</v>
+        <v>0.37379785540087418</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89160267194217191</v>
+        <v>0.74110183282136399</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.83299613454240107</v>
+        <v>0.31952567862537773</v>
       </c>
       <c r="G13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33428186088328415</v>
+        <v>0.72760871796535342</v>
       </c>
       <c r="H13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.51991420833112323</v>
+        <v>0.20972720589094151</v>
       </c>
       <c r="I13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88940833837367883</v>
+        <v>0.41978605582876016</v>
       </c>
       <c r="J13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.57997184033308979</v>
+        <v>0.94824312515289166</v>
       </c>
       <c r="K13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.90816338020156639</v>
+        <v>6.6677795180252186E-2</v>
       </c>
       <c r="L13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40592555699997723</v>
+        <v>0.15770190842822784</v>
       </c>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>3.7800293658070916E-2</v>
+        <v>0.10960116840478318</v>
       </c>
       <c r="N13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9540205654636521</v>
+        <v>0.84840960735321835</v>
       </c>
       <c r="O13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.99032984270593705</v>
+        <v>0.44536559970246448</v>
       </c>
       <c r="P13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.89111623503092285</v>
+        <v>0.91900949561085976</v>
       </c>
       <c r="Q13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.36152405707770718</v>
+        <v>0.86664977524991904</v>
       </c>
       <c r="R13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.19569381850650192</v>
+        <v>0.32795280818469075</v>
       </c>
       <c r="S13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38901154735259225</v>
+        <v>0.29260990233523843</v>
       </c>
       <c r="T13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.6278150518430835</v>
+        <v>0.21090046110303429</v>
       </c>
       <c r="U13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.60734502298397919</v>
+        <v>0.93537368931724163</v>
       </c>
       <c r="V13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.38477550910568126</v>
+        <v>0.62279450854593865</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -11766,87 +11766,87 @@
       </c>
       <c r="B14">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76648469816560982</v>
+        <v>0.81842715838912439</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.86336607068827642</v>
+        <v>0.77259342776395756</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.54360133631028784</v>
+        <v>0.53011492050616971</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73735542717076608</v>
+        <v>0.52460128461475919</v>
       </c>
       <c r="G14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8223817301682812</v>
+        <v>0.70188713871155761</v>
       </c>
       <c r="H14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82104096425495954</v>
+        <v>0.42265080020485746</v>
       </c>
       <c r="I14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68200332105814276</v>
+        <v>0.29806805787821777</v>
       </c>
       <c r="J14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5711941775713596</v>
+        <v>0.54018824256740361</v>
       </c>
       <c r="K14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.34322459290390139</v>
+        <v>0.22541427000213654</v>
       </c>
       <c r="L14">
-        <f t="shared" ref="L14:V50" ca="1" si="3">RAND()</f>
-        <v>0.19389743058568276</v>
+        <f t="shared" ref="L14:V45" ca="1" si="3">RAND()</f>
+        <v>0.65029137116884572</v>
       </c>
       <c r="M14">
         <f t="shared" ca="1" si="3"/>
-        <v>5.3881734146222104E-2</v>
+        <v>0.60441890451671976</v>
       </c>
       <c r="N14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.61742071833818457</v>
+        <v>0.18187342915759219</v>
       </c>
       <c r="O14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97981381513550081</v>
+        <v>0.87704817205744645</v>
       </c>
       <c r="P14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.8924529446282542</v>
+        <v>9.3970255142384884E-3</v>
       </c>
       <c r="Q14">
         <f t="shared" ca="1" si="3"/>
-        <v>9.6874383513929851E-2</v>
+        <v>0.50560146497153535</v>
       </c>
       <c r="R14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.179183140927481</v>
+        <v>0.29232475804117364</v>
       </c>
       <c r="S14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48850477729442943</v>
+        <v>0.62091851080008809</v>
       </c>
       <c r="T14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7216138596431344</v>
+        <v>0.54213245673058497</v>
       </c>
       <c r="U14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79569048385247609</v>
+        <v>0.73028535788068416</v>
       </c>
       <c r="V14">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95950940883984093</v>
+        <v>0.59462841566394276</v>
       </c>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
@@ -11855,87 +11855,87 @@
       </c>
       <c r="B15">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66334468558716786</v>
+        <v>0.81465226174120708</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11897804136364354</v>
+        <v>9.0589232677239173E-2</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.37633545115299605</v>
+        <v>0.9607916058489937</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12805280126725194</v>
+        <v>0.32043148054684434</v>
       </c>
       <c r="G15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1375291671322727</v>
+        <v>0.64353797065547524</v>
       </c>
       <c r="H15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81479471373095447</v>
+        <v>0.87711037836514549</v>
       </c>
       <c r="I15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20717460067608673</v>
+        <v>0.88717837013204681</v>
       </c>
       <c r="J15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46175319071237575</v>
+        <v>0.77907813770918732</v>
       </c>
       <c r="K15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53703627967899015</v>
+        <v>0.28267899331766588</v>
       </c>
       <c r="L15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.43146465498119879</v>
+        <v>0.37334925316401102</v>
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1247587271391738</v>
+        <v>0.12873908113156884</v>
       </c>
       <c r="N15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52217211660581386</v>
+        <v>0.55180886507391502</v>
       </c>
       <c r="O15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.58440083495112627</v>
+        <v>6.0989298752801346E-2</v>
       </c>
       <c r="P15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35628681928297479</v>
+        <v>0.60211427417729424</v>
       </c>
       <c r="Q15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36150777725880556</v>
+        <v>0.72505791665170727</v>
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53616270964696411</v>
+        <v>0.25529303336154163</v>
       </c>
       <c r="S15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22535759694269886</v>
+        <v>0.9665186962133232</v>
       </c>
       <c r="T15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2488952489644245</v>
+        <v>0.53462253022698758</v>
       </c>
       <c r="U15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.34370591216737678</v>
+        <v>0.37678566409659109</v>
       </c>
       <c r="V15">
         <f t="shared" ca="1" si="3"/>
-        <v>0.81975839784795079</v>
+        <v>0.3640775911928158</v>
       </c>
     </row>
     <row r="16" spans="1:22" x14ac:dyDescent="0.25">
@@ -11944,87 +11944,87 @@
       </c>
       <c r="B16">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81049785530982132</v>
+        <v>0.47588861246979564</v>
       </c>
       <c r="D16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83344587734880715</v>
+        <v>0.46283125469752373</v>
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14946502911486559</v>
+        <v>0.84918999363054604</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.63156924319151797</v>
+        <v>0.48395898514386571</v>
       </c>
       <c r="G16">
         <f t="shared" ca="1" si="2"/>
-        <v>5.3978172726041662E-2</v>
+        <v>0.30642352768704473</v>
       </c>
       <c r="H16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24361924863857065</v>
+        <v>0.91320849163800044</v>
       </c>
       <c r="I16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57732564830182764</v>
+        <v>0.30251627369794609</v>
       </c>
       <c r="J16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21681587772613331</v>
+        <v>0.32869986073124968</v>
       </c>
       <c r="K16">
         <f t="shared" ca="1" si="2"/>
-        <v>2.9447664154813591E-2</v>
+        <v>0.98898597543811917</v>
       </c>
       <c r="L16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.13409593065007563</v>
+        <v>0.68273956581291617</v>
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8351529621409175</v>
+        <v>0.19803872985586679</v>
       </c>
       <c r="N16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68818558382233852</v>
+        <v>0.22275675020335395</v>
       </c>
       <c r="O16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87419921756539076</v>
+        <v>0.61979690701546075</v>
       </c>
       <c r="P16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61399363139367136</v>
+        <v>0.99329850366042571</v>
       </c>
       <c r="Q16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2098405368767936</v>
+        <v>0.5282486237791516</v>
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40874846149790145</v>
+        <v>0.73989507148000866</v>
       </c>
       <c r="S16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5660875771012096</v>
+        <v>0.97434640184182109</v>
       </c>
       <c r="T16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31132178113659126</v>
+        <v>0.9537834767473643</v>
       </c>
       <c r="U16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.55213965723451053</v>
+        <v>0.92896054248225257</v>
       </c>
       <c r="V16">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47694876181085688</v>
+        <v>0.94006555399763991</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.25">
@@ -12033,87 +12033,87 @@
       </c>
       <c r="B17">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42830342483429373</v>
+        <v>0.14910909607372236</v>
       </c>
       <c r="D17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61239697214973476</v>
+        <v>0.67221026045532351</v>
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56332296471024335</v>
+        <v>0.21743562209390044</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32686153656697237</v>
+        <v>4.3981313775018904E-3</v>
       </c>
       <c r="G17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36115187354948053</v>
+        <v>0.44434660871238518</v>
       </c>
       <c r="H17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12918253507708621</v>
+        <v>0.41862411585338444</v>
       </c>
       <c r="I17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11777167130089605</v>
+        <v>0.44376851331444467</v>
       </c>
       <c r="J17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96356889529194212</v>
+        <v>0.34039470780712389</v>
       </c>
       <c r="K17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1866486395808149</v>
+        <v>0.70736732065727803</v>
       </c>
       <c r="L17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16020051446418304</v>
+        <v>0.84812721859537754</v>
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20168672258747466</v>
+        <v>0.11910464260938713</v>
       </c>
       <c r="N17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26395298546587664</v>
+        <v>0.11478947332548128</v>
       </c>
       <c r="O17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89739996127454724</v>
+        <v>0.92570923235027536</v>
       </c>
       <c r="P17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12856213347945833</v>
+        <v>0.73610804916399375</v>
       </c>
       <c r="Q17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16159981263430312</v>
+        <v>0.47374327738786626</v>
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39674794430257754</v>
+        <v>0.10175993662657279</v>
       </c>
       <c r="S17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74520889038503113</v>
+        <v>0.36641893130833136</v>
       </c>
       <c r="T17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.75768492304568291</v>
+        <v>0.67368015388878444</v>
       </c>
       <c r="U17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49819104986901286</v>
+        <v>0.43464158734611047</v>
       </c>
       <c r="V17">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4529383855821606</v>
+        <v>5.0403914668394223E-2</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.25">
@@ -12122,87 +12122,87 @@
       </c>
       <c r="B18">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18">
         <f t="shared" ca="1" si="2"/>
-        <v>4.2719303767222772E-2</v>
+        <v>0.76779078928730327</v>
       </c>
       <c r="D18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75783343540992376</v>
+        <v>0.72651335703796827</v>
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21883562387147781</v>
+        <v>5.484729555204837E-2</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74436187422433542</v>
+        <v>0.63480188495221612</v>
       </c>
       <c r="G18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.76932195709077833</v>
+        <v>0.1814654377684507</v>
       </c>
       <c r="H18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9016894029464253</v>
+        <v>0.64456633502295779</v>
       </c>
       <c r="I18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41488956410244238</v>
+        <v>0.29411424307570977</v>
       </c>
       <c r="J18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.28833649643672665</v>
+        <v>0.58495297974368987</v>
       </c>
       <c r="K18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12622558066623391</v>
+        <v>0.52412052149414678</v>
       </c>
       <c r="L18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41554914434001611</v>
+        <v>0.95157783924422745</v>
       </c>
       <c r="M18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44796745644251568</v>
+        <v>0.92644184634163607</v>
       </c>
       <c r="N18">
         <f t="shared" ca="1" si="2"/>
-        <v>8.6963817545442357E-3</v>
+        <v>0.44493561128986059</v>
       </c>
       <c r="O18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50505434920853498</v>
+        <v>0.40662216050581101</v>
       </c>
       <c r="P18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94466343204853831</v>
+        <v>0.52789397069864674</v>
       </c>
       <c r="Q18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78170375587981222</v>
+        <v>5.3364538028297104E-2</v>
       </c>
       <c r="R18">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82692479890987836</v>
+        <v>0.73704546656847292</v>
       </c>
       <c r="S18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53833488416622755</v>
+        <v>0.73077017879276551</v>
       </c>
       <c r="T18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.68582428149777397</v>
+        <v>0.4120485197565158</v>
       </c>
       <c r="U18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.97725603539945505</v>
+        <v>0.52870322534902581</v>
       </c>
       <c r="V18">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42450395628662962</v>
+        <v>0.72382677984620358</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.25">
@@ -12211,87 +12211,87 @@
       </c>
       <c r="B19">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.7436829128677559</v>
+        <v>0.66530081225728444</v>
       </c>
       <c r="D19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89325221688092171</v>
+        <v>0.1908457547260014</v>
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.72416353723433358</v>
+        <v>0.29623351021861433</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64714143725760165</v>
+        <v>0.48918110031646156</v>
       </c>
       <c r="G19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95276946723912703</v>
+        <v>0.3288996107635398</v>
       </c>
       <c r="H19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89641515422669571</v>
+        <v>0.20255872538537356</v>
       </c>
       <c r="I19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94718350417830888</v>
+        <v>0.5356964852526851</v>
       </c>
       <c r="J19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67694821298300101</v>
+        <v>0.25380568070517395</v>
       </c>
       <c r="K19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2790547949799338</v>
+        <v>0.19435955629036727</v>
       </c>
       <c r="L19">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1049707420931272E-2</v>
+        <v>0.71361433164786248</v>
       </c>
       <c r="M19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8305779068014908</v>
+        <v>0.69213184962098695</v>
       </c>
       <c r="N19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.52149599031040039</v>
+        <v>7.2209105177327371E-2</v>
       </c>
       <c r="O19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42537498283730413</v>
+        <v>0.24421865925036113</v>
       </c>
       <c r="P19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61266153453240491</v>
+        <v>0.2648311264018961</v>
       </c>
       <c r="Q19">
         <f t="shared" ca="1" si="2"/>
-        <v>5.768342354277145E-3</v>
+        <v>0.67525555001050852</v>
       </c>
       <c r="R19">
         <f t="shared" ca="1" si="2"/>
-        <v>0.64333402021313535</v>
+        <v>0.58880267348031767</v>
       </c>
       <c r="S19">
         <f t="shared" ca="1" si="3"/>
-        <v>9.2856348774353892E-2</v>
+        <v>0.54169892126795338</v>
       </c>
       <c r="T19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80163960167824067</v>
+        <v>0.10739793685988819</v>
       </c>
       <c r="U19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74408031262930918</v>
+        <v>0.5156793735739057</v>
       </c>
       <c r="V19">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86563879895878659</v>
+        <v>0.34693391526086659</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.25">
@@ -12300,87 +12300,87 @@
       </c>
       <c r="B20">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21750966672744854</v>
+        <v>0.71025111120898976</v>
       </c>
       <c r="D20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54788154409564738</v>
+        <v>0.98838876949808707</v>
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9865082661668334</v>
+        <v>0.13962570178924605</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90456205677069246</v>
+        <v>0.23749761091763155</v>
       </c>
       <c r="G20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45120809106456683</v>
+        <v>0.25438890477359788</v>
       </c>
       <c r="H20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.81203304460559467</v>
+        <v>0.37794735211103359</v>
       </c>
       <c r="I20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.51687243012159945</v>
+        <v>0.45120862585725274</v>
       </c>
       <c r="J20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12992004628791198</v>
+        <v>1.6432407159356233E-2</v>
       </c>
       <c r="K20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41337892457943737</v>
+        <v>0.31218189925328732</v>
       </c>
       <c r="L20">
         <f t="shared" ca="1" si="2"/>
-        <v>9.1357568613653961E-2</v>
+        <v>7.7493032466723788E-2</v>
       </c>
       <c r="M20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88740782489108994</v>
+        <v>0.28274800979338588</v>
       </c>
       <c r="N20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99127032897431411</v>
+        <v>0.22404101883531435</v>
       </c>
       <c r="O20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59983742416784369</v>
+        <v>1.192991777308694E-3</v>
       </c>
       <c r="P20">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32547833510646573</v>
+        <v>0.12603161762265458</v>
       </c>
       <c r="Q20">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2377401795269849E-2</v>
+        <v>0.53049699403257555</v>
       </c>
       <c r="R20">
         <f t="shared" ca="1" si="2"/>
-        <v>7.4233508260576064E-3</v>
+        <v>0.91064453903928733</v>
       </c>
       <c r="S20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.62065862995834242</v>
+        <v>0.6997700596828822</v>
       </c>
       <c r="T20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.47044884433027656</v>
+        <v>0.31279434939455952</v>
       </c>
       <c r="U20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.79815453692938332</v>
+        <v>0.23319202266930927</v>
       </c>
       <c r="V20">
         <f t="shared" ca="1" si="3"/>
-        <v>0.54418779164027031</v>
+        <v>0.46025067153665644</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -12389,87 +12389,87 @@
       </c>
       <c r="B21">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.9227778098346362</v>
+        <v>0.7980698286967155</v>
       </c>
       <c r="D21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.8506760888789785</v>
+        <v>0.44501514127386599</v>
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89712072914464469</v>
+        <v>0.62681896400619175</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.24435762499351554</v>
+        <v>0.72251259411058866</v>
       </c>
       <c r="G21">
         <f t="shared" ca="1" si="2"/>
-        <v>6.8163706192576168E-2</v>
+        <v>0.39558805411345155</v>
       </c>
       <c r="H21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83938972694176761</v>
+        <v>0.76498520563682204</v>
       </c>
       <c r="I21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49569776093985773</v>
+        <v>0.67804914599382038</v>
       </c>
       <c r="J21">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0988688120674808E-2</v>
+        <v>0.70338476684172824</v>
       </c>
       <c r="K21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90704675336938467</v>
+        <v>0.85023462961458163</v>
       </c>
       <c r="L21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20694184765899637</v>
+        <v>3.2743709681359423E-2</v>
       </c>
       <c r="M21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47542074220927433</v>
+        <v>0.62020276463034685</v>
       </c>
       <c r="N21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80775699250411837</v>
+        <v>0.15947841272371821</v>
       </c>
       <c r="O21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.25102997167726682</v>
+        <v>0.5528326725163496</v>
       </c>
       <c r="P21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.92365510201560896</v>
+        <v>0.59176930364670832</v>
       </c>
       <c r="Q21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90774985437103739</v>
+        <v>0.95617316232333405</v>
       </c>
       <c r="R21">
         <f t="shared" ca="1" si="2"/>
-        <v>0.20829209058117037</v>
+        <v>0.97232623230067128</v>
       </c>
       <c r="S21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.5886048233129062</v>
+        <v>0.38364306659612357</v>
       </c>
       <c r="T21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.92720943962675784</v>
+        <v>0.31823629499614059</v>
       </c>
       <c r="U21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.42296575269776504</v>
+        <v>0.60602857017772105</v>
       </c>
       <c r="V21">
         <f t="shared" ca="1" si="3"/>
-        <v>0.20741020690659429</v>
+        <v>0.17321991374141765</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -12482,83 +12482,83 @@
       </c>
       <c r="C22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.50352918233097932</v>
+        <v>0.42161132299980264</v>
       </c>
       <c r="D22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96337284500534215</v>
+        <v>0.60584182245609519</v>
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89199593997591531</v>
+        <v>6.8242586087063462E-2</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57472174323557357</v>
+        <v>0.47387575885667765</v>
       </c>
       <c r="G22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89084266090683029</v>
+        <v>0.98629298696356138</v>
       </c>
       <c r="H22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65318809326258909</v>
+        <v>0.92102840127372199</v>
       </c>
       <c r="I22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57273985833806451</v>
+        <v>0.75427330387661407</v>
       </c>
       <c r="J22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78909984302739766</v>
+        <v>0.97853394165924334</v>
       </c>
       <c r="K22">
         <f t="shared" ca="1" si="2"/>
-        <v>3.1043511366995569E-2</v>
+        <v>0.21518916513790165</v>
       </c>
       <c r="L22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67361295525636822</v>
+        <v>4.1018907732910392E-2</v>
       </c>
       <c r="M22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80916135582508464</v>
+        <v>7.6474831828788004E-2</v>
       </c>
       <c r="N22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36620767310531421</v>
+        <v>0.48528005123951901</v>
       </c>
       <c r="O22">
         <f t="shared" ca="1" si="2"/>
-        <v>5.9267911920632521E-2</v>
+        <v>0.36770629798665855</v>
       </c>
       <c r="P22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55669657789583904</v>
+        <v>0.27484250045049163</v>
       </c>
       <c r="Q22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.90868307336367815</v>
+        <v>0.52053068745811815</v>
       </c>
       <c r="R22">
         <f t="shared" ca="1" si="2"/>
-        <v>0.74620794565073234</v>
+        <v>0.68925858953815289</v>
       </c>
       <c r="S22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.22123939220262523</v>
+        <v>7.5015522162894976E-2</v>
       </c>
       <c r="T22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57002583142959862</v>
+        <v>0.81955420671223367</v>
       </c>
       <c r="U22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43193170220741339</v>
+        <v>0.99194058156883891</v>
       </c>
       <c r="V22">
         <f t="shared" ca="1" si="3"/>
-        <v>0.15079700414185271</v>
+        <v>3.5102510226142525E-2</v>
       </c>
     </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
@@ -12567,87 +12567,87 @@
       </c>
       <c r="B23">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.41548432138666447</v>
+        <v>0.45455851980313877</v>
       </c>
       <c r="D23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59669068337037268</v>
+        <v>0.64424946830884489</v>
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15654729494926234</v>
+        <v>0.12809049786278504</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.40926918547000823</v>
+        <v>0.84289650796816606</v>
       </c>
       <c r="G23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.80707535438848865</v>
+        <v>0.51386579929184073</v>
       </c>
       <c r="H23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12581832182191188</v>
+        <v>0.1303004672875957</v>
       </c>
       <c r="I23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2920682317072929</v>
+        <v>0.16017738909618218</v>
       </c>
       <c r="J23">
         <f t="shared" ca="1" si="2"/>
-        <v>7.5980799649253306E-2</v>
+        <v>0.91385078673512199</v>
       </c>
       <c r="K23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83681344352274623</v>
+        <v>0.95069918833512002</v>
       </c>
       <c r="L23">
         <f t="shared" ca="1" si="2"/>
-        <v>6.2894976760533683E-2</v>
+        <v>0.56274436828097307</v>
       </c>
       <c r="M23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89765331140833349</v>
+        <v>5.9753468890892947E-2</v>
       </c>
       <c r="N23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77003422930379473</v>
+        <v>0.34713715821496383</v>
       </c>
       <c r="O23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97350351819151726</v>
+        <v>0.43281164282506634</v>
       </c>
       <c r="P23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36776884624866357</v>
+        <v>0.99332048529296813</v>
       </c>
       <c r="Q23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.44003535030755569</v>
+        <v>0.26848475138044381</v>
       </c>
       <c r="R23">
         <f t="shared" ca="1" si="2"/>
-        <v>0.65266939796008316</v>
+        <v>0.57355247871995008</v>
       </c>
       <c r="S23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.63794446675455108</v>
+        <v>0.78241722523786994</v>
       </c>
       <c r="T23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57099305571643533</v>
+        <v>0.69132681571912147</v>
       </c>
       <c r="U23">
         <f t="shared" ca="1" si="3"/>
-        <v>0.31022823707849267</v>
+        <v>0.47262525343071393</v>
       </c>
       <c r="V23">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3354632511191622E-2</v>
+        <v>0.97401862532160743</v>
       </c>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
@@ -12656,87 +12656,87 @@
       </c>
       <c r="B24">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.42527929206531412</v>
+        <v>0.78102131778470951</v>
       </c>
       <c r="D24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.22343066430932645</v>
+        <v>0.99610848164017929</v>
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.6141700981520879</v>
+        <v>0.57733268876025667</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.69219449470990602</v>
+        <v>0.99996109386145005</v>
       </c>
       <c r="G24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.14087322794961887</v>
+        <v>2.85380788465317E-3</v>
       </c>
       <c r="H24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99225147447894602</v>
+        <v>0.68923150254966481</v>
       </c>
       <c r="I24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49663185005755317</v>
+        <v>4.0749760690090064E-2</v>
       </c>
       <c r="J24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57090557749856419</v>
+        <v>9.8524576027849697E-2</v>
       </c>
       <c r="K24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54058033338100819</v>
+        <v>0.725059248444888</v>
       </c>
       <c r="L24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.45414809640940756</v>
+        <v>0.60346529107004254</v>
       </c>
       <c r="M24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57554036372225048</v>
+        <v>0.36015751183935629</v>
       </c>
       <c r="N24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89793547129726026</v>
+        <v>0.99919428850923098</v>
       </c>
       <c r="O24">
         <f t="shared" ca="1" si="2"/>
-        <v>9.8166285944377818E-2</v>
+        <v>7.1962025981189504E-2</v>
       </c>
       <c r="P24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.49980343858167375</v>
+        <v>0.15091182974784689</v>
       </c>
       <c r="Q24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.87667578002888769</v>
+        <v>0.2829357648168549</v>
       </c>
       <c r="R24">
         <f t="shared" ca="1" si="2"/>
-        <v>0.96812618735433842</v>
+        <v>0.94446785020344226</v>
       </c>
       <c r="S24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.4393283371846356</v>
+        <v>0.29456862882627821</v>
       </c>
       <c r="T24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.43869074489333137</v>
+        <v>0.490201241267615</v>
       </c>
       <c r="U24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.45761340771720216</v>
+        <v>0.45394250034914774</v>
       </c>
       <c r="V24">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50012691917145391</v>
+        <v>8.0990331216071687E-2</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -12745,87 +12745,87 @@
       </c>
       <c r="B25">
         <f t="shared" ca="1" si="1"/>
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="C25">
         <f t="shared" ca="1" si="2"/>
-        <v>7.7073560217486903E-2</v>
+        <v>0.37944402755447082</v>
       </c>
       <c r="D25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60610531957709757</v>
+        <v>0.54096854841908626</v>
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="2"/>
-        <v>2.4204501118226251E-2</v>
+        <v>0.10104624294887965</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54472897800718523</v>
+        <v>0.83734243132416608</v>
       </c>
       <c r="G25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.32004265310290292</v>
+        <v>0.94717282127990143</v>
       </c>
       <c r="H25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95824153917235788</v>
+        <v>0.16886904301952843</v>
       </c>
       <c r="I25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26235895249994989</v>
+        <v>0.55390569657700572</v>
       </c>
       <c r="J25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.94866141289755257</v>
+        <v>0.54909555030618251</v>
       </c>
       <c r="K25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57845610453289342</v>
+        <v>0.49275560893621495</v>
       </c>
       <c r="L25">
         <f t="shared" ca="1" si="2"/>
-        <v>5.0447781789092594E-2</v>
+        <v>0.28827155613017053</v>
       </c>
       <c r="M25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.61424062749033992</v>
+        <v>2.7990700701876592E-2</v>
       </c>
       <c r="N25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1738884864817154</v>
+        <v>0.99733843825157342</v>
       </c>
       <c r="O25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88068015732147631</v>
+        <v>0.8386209166562697</v>
       </c>
       <c r="P25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.18810251978979831</v>
+        <v>0.58977219628654498</v>
       </c>
       <c r="Q25">
         <f t="shared" ca="1" si="2"/>
-        <v>5.2756187463983917E-2</v>
+        <v>0.99538567065064032</v>
       </c>
       <c r="R25">
         <f t="shared" ca="1" si="2"/>
-        <v>0.67544603139744797</v>
+        <v>0.35622793377473272</v>
       </c>
       <c r="S25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2648084816140065</v>
+        <v>0.97874604217189543</v>
       </c>
       <c r="T25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.72145648851889055</v>
+        <v>0.75013367648721441</v>
       </c>
       <c r="U25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7074691345887294</v>
+        <v>0.64693108724780501</v>
       </c>
       <c r="V25">
         <f t="shared" ca="1" si="3"/>
-        <v>0.1521934251179734</v>
+        <v>0.85394349889122789</v>
       </c>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
@@ -12834,87 +12834,87 @@
       </c>
       <c r="B26">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27427044594882966</v>
+        <v>0.41796126089536079</v>
       </c>
       <c r="D26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36259031583615831</v>
+        <v>0.77690219834175911</v>
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.21551848360524739</v>
+        <v>0.58551409330464399</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.93825079128881272</v>
+        <v>0.52898596869343251</v>
       </c>
       <c r="G26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.99685000164026993</v>
+        <v>0.76641997546036644</v>
       </c>
       <c r="H26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3842047048286219</v>
+        <v>0.68950009527586553</v>
       </c>
       <c r="I26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.68674402655958111</v>
+        <v>0.1848777356197665</v>
       </c>
       <c r="J26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35749584668916123</v>
+        <v>0.19043583560441257</v>
       </c>
       <c r="K26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33503719301374646</v>
+        <v>0.40438171864233341</v>
       </c>
       <c r="L26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.83116913310132823</v>
+        <v>0.44348407854764227</v>
       </c>
       <c r="M26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.79758283497533788</v>
+        <v>3.4502684538650907E-4</v>
       </c>
       <c r="N26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78489280331310918</v>
+        <v>3.2204141675587827E-2</v>
       </c>
       <c r="O26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70716727450482519</v>
+        <v>0.1508114992937305</v>
       </c>
       <c r="P26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.55475571927715139</v>
+        <v>0.64595615857709532</v>
       </c>
       <c r="Q26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.29418364221331395</v>
+        <v>0.55012926558962227</v>
       </c>
       <c r="R26">
         <f t="shared" ca="1" si="2"/>
-        <v>0.12915712519561207</v>
+        <v>0.85651843711216558</v>
       </c>
       <c r="S26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.49192914294584222</v>
+        <v>0.54732487139314412</v>
       </c>
       <c r="T26">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74280523302350321</v>
+        <v>0.57677779017179787</v>
       </c>
       <c r="U26">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0776505270035206E-2</v>
+        <v>0.11507490146520982</v>
       </c>
       <c r="V26">
         <f t="shared" ca="1" si="3"/>
-        <v>7.397168109893093E-2</v>
+        <v>0.70528819839207291</v>
       </c>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
@@ -12923,87 +12923,87 @@
       </c>
       <c r="B27">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46629854849918961</v>
+        <v>0.88003778790412368</v>
       </c>
       <c r="D27">
         <f t="shared" ca="1" si="2"/>
-        <v>1.016801698282721E-2</v>
+        <v>0.68284897915564757</v>
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77937620507646033</v>
+        <v>0.62899787538315532</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60468162547706805</v>
+        <v>0.22257131180876777</v>
       </c>
       <c r="G27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.35340438318190892</v>
+        <v>0.51848359257561982</v>
       </c>
       <c r="H27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.85930529369704978</v>
+        <v>0.28823411916420472</v>
       </c>
       <c r="I27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.57657294625323052</v>
+        <v>0.96526886244480481</v>
       </c>
       <c r="J27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30193938287773614</v>
+        <v>0.37330568736593317</v>
       </c>
       <c r="K27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.2067675175524607</v>
+        <v>0.89479947367137747</v>
       </c>
       <c r="L27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.77120415222487571</v>
+        <v>0.44101945704620593</v>
       </c>
       <c r="M27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.70281916350889284</v>
+        <v>0.47586017542367665</v>
       </c>
       <c r="N27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.53463823007150535</v>
+        <v>0.10493650963787637</v>
       </c>
       <c r="O27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.66152444769138607</v>
+        <v>1.9299212610428551E-3</v>
       </c>
       <c r="P27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11172400303416563</v>
+        <v>0.30838959045664494</v>
       </c>
       <c r="Q27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.15123386234750225</v>
+        <v>0.94831957781982656</v>
       </c>
       <c r="R27">
         <f t="shared" ca="1" si="2"/>
-        <v>0.30942688014997533</v>
+        <v>0.29471687074474084</v>
       </c>
       <c r="S27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30356196222362197</v>
+        <v>0.82680793588014823</v>
       </c>
       <c r="T27">
         <f t="shared" ca="1" si="3"/>
-        <v>8.7388304990684618E-2</v>
+        <v>0.92238678821761277</v>
       </c>
       <c r="U27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30220737908432183</v>
+        <v>0.70199802520956411</v>
       </c>
       <c r="V27">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2810999200310671</v>
+        <v>0.64182844826191521</v>
       </c>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
@@ -13012,87 +13012,87 @@
       </c>
       <c r="B28">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39455310079338446</v>
+        <v>0.50840232075497871</v>
       </c>
       <c r="D28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.82216596459068192</v>
+        <v>0.12717066141108069</v>
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.71053223676691368</v>
+        <v>0.10984710451123625</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.97049266257360234</v>
+        <v>0.1402161387281039</v>
       </c>
       <c r="G28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.33258747527675558</v>
+        <v>0.7546458900324805</v>
       </c>
       <c r="H28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1186139824343817</v>
+        <v>0.77620080066509789</v>
       </c>
       <c r="I28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.89179487250903922</v>
+        <v>0.50225744312055098</v>
       </c>
       <c r="J28">
         <f t="shared" ca="1" si="2"/>
-        <v>7.347701339569479E-2</v>
+        <v>0.41896946665109791</v>
       </c>
       <c r="K28">
         <f t="shared" ca="1" si="2"/>
-        <v>8.7075017298950952E-2</v>
+        <v>0.66391258383223095</v>
       </c>
       <c r="L28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.31250098671956617</v>
+        <v>0.64608196838721221</v>
       </c>
       <c r="M28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.34134866792427943</v>
+        <v>0.90107825937448438</v>
       </c>
       <c r="N28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.11273117796939058</v>
+        <v>1.4450699226061126E-2</v>
       </c>
       <c r="O28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.47804940429787945</v>
+        <v>4.1360783708255577E-2</v>
       </c>
       <c r="P28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26920555846625072</v>
+        <v>0.72905793139256658</v>
       </c>
       <c r="Q28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.54142364035477974</v>
+        <v>0.99374038384668717</v>
       </c>
       <c r="R28">
         <f t="shared" ca="1" si="2"/>
-        <v>0.86258342755821338</v>
+        <v>0.61995759683038587</v>
       </c>
       <c r="S28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.93818734215207067</v>
+        <v>0.48458777721157476</v>
       </c>
       <c r="T28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.40872160462389207</v>
+        <v>0.16256102978740883</v>
       </c>
       <c r="U28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.51810813066334405</v>
+        <v>0.98067113722902455</v>
       </c>
       <c r="V28">
         <f t="shared" ca="1" si="3"/>
-        <v>0.23548007214218369</v>
+        <v>0.1304896780338991</v>
       </c>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
@@ -13101,87 +13101,87 @@
       </c>
       <c r="B29">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="C29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59573605998349954</v>
+        <v>0.85819283757699494</v>
       </c>
       <c r="D29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16547118883704348</v>
+        <v>0.88388167412369889</v>
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.3825218237325646</v>
+        <v>0.24395747353454822</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.46962615024988941</v>
+        <v>0.41533645722362034</v>
       </c>
       <c r="G29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.56329878752598816</v>
+        <v>0.28909573958435086</v>
       </c>
       <c r="H29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.59918582138286802</v>
+        <v>0.89049580526202998</v>
       </c>
       <c r="I29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.88866216545671439</v>
+        <v>0.65194680777130376</v>
       </c>
       <c r="J29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.84436469992249408</v>
+        <v>0.43634326581651828</v>
       </c>
       <c r="K29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.36498529830298032</v>
+        <v>0.57095651099969535</v>
       </c>
       <c r="L29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.16299993592007367</v>
+        <v>0.66408131926286051</v>
       </c>
       <c r="M29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27751450251632437</v>
+        <v>0.98068173172390716</v>
       </c>
       <c r="N29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4810766004607534</v>
+        <v>0.5178048257930381</v>
       </c>
       <c r="O29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.78205964024597119</v>
+        <v>0.8253106437038169</v>
       </c>
       <c r="P29">
         <f t="shared" ca="1" si="2"/>
-        <v>8.4461603269165852E-3</v>
+        <v>0.84348460898639366</v>
       </c>
       <c r="Q29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.75485514580936497</v>
+        <v>0.7176071785280338</v>
       </c>
       <c r="R29">
         <f t="shared" ca="1" si="2"/>
-        <v>0.27817887633245175</v>
+        <v>0.73584799642615606</v>
       </c>
       <c r="S29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.19085278928954885</v>
+        <v>0.23075718180647709</v>
       </c>
       <c r="T29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.53932679097596192</v>
+        <v>0.45567992342194674</v>
       </c>
       <c r="U29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.25722261707041616</v>
+        <v>0.350413282058188</v>
       </c>
       <c r="V29">
         <f t="shared" ca="1" si="3"/>
-        <v>0.17008731409845734</v>
+        <v>8.9285692819293105E-3</v>
       </c>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
@@ -13190,87 +13190,87 @@
       </c>
       <c r="B30">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.4413867181845974</v>
+        <v>0.29926389831843614</v>
       </c>
       <c r="D30">
         <f t="shared" ca="1" si="2"/>
-        <v>0.60467301911895799</v>
+        <v>0.46052382041520357</v>
       </c>
       <c r="E30">
-        <f t="shared" ref="E30:T50" ca="1" si="4">RAND()</f>
-        <v>0.25023319433384528</v>
+        <f t="shared" ref="E30:T45" ca="1" si="4">RAND()</f>
+        <v>0.9166276428936424</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="4"/>
-        <v>9.6303971827772394E-2</v>
+        <v>0.74448994425893966</v>
       </c>
       <c r="G30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.30618601650860944</v>
+        <v>0.44925250195946831</v>
       </c>
       <c r="H30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.48300704625503865</v>
+        <v>0.65191208481144824</v>
       </c>
       <c r="I30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.25637158736948895</v>
+        <v>0.61206732178890666</v>
       </c>
       <c r="J30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4796756556106887</v>
+        <v>0.89359015218291049</v>
       </c>
       <c r="K30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70269950571924333</v>
+        <v>0.86711808575641913</v>
       </c>
       <c r="L30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.13821859260658864</v>
+        <v>0.42310283057950138</v>
       </c>
       <c r="M30">
         <f t="shared" ca="1" si="4"/>
-        <v>9.3207798497078387E-2</v>
+        <v>0.15267182806785318</v>
       </c>
       <c r="N30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24012820344551</v>
+        <v>0.45287310851931173</v>
       </c>
       <c r="O30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54640143259824947</v>
+        <v>0.20480912562568399</v>
       </c>
       <c r="P30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.98705132319197109</v>
+        <v>0.57437460026394249</v>
       </c>
       <c r="Q30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10247004721592046</v>
+        <v>0.30444620755307827</v>
       </c>
       <c r="R30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.3041821219821419</v>
+        <v>0.43819892605964905</v>
       </c>
       <c r="S30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.64446688611485914</v>
+        <v>0.5207914399265906</v>
       </c>
       <c r="T30">
         <f t="shared" ca="1" si="4"/>
-        <v>0.79283589919344755</v>
+        <v>0.69015103688229107</v>
       </c>
       <c r="U30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.66820934893873229</v>
+        <v>4.3558459965192919E-2</v>
       </c>
       <c r="V30">
         <f t="shared" ca="1" si="3"/>
-        <v>0.33177582914457326</v>
+        <v>0.30465204611424446</v>
       </c>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
@@ -13279,87 +13279,87 @@
       </c>
       <c r="B31">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C31">
-        <f t="shared" ref="C31:R50" ca="1" si="5">RAND()</f>
-        <v>0.24619466771159648</v>
+        <f t="shared" ref="C31:R46" ca="1" si="5">RAND()</f>
+        <v>0.30083981671731008</v>
       </c>
       <c r="D31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48716228652008642</v>
+        <v>0.35221041780858531</v>
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="5"/>
-        <v>6.6177338347840786E-2</v>
+        <v>0.79670080923354314</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46086653962115509</v>
+        <v>0.60179853670606731</v>
       </c>
       <c r="G31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48031077569836866</v>
+        <v>0.56504321094401233</v>
       </c>
       <c r="H31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12006618182797335</v>
+        <v>0.76459148916911712</v>
       </c>
       <c r="I31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81649882723228984</v>
+        <v>0.83911492081643368</v>
       </c>
       <c r="J31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73257737180092231</v>
+        <v>0.4148582811086633</v>
       </c>
       <c r="K31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12600721998319264</v>
+        <v>0.71549705502332173</v>
       </c>
       <c r="L31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91201523326008027</v>
+        <v>0.83727068256677495</v>
       </c>
       <c r="M31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55153439585011776</v>
+        <v>0.67898038859775856</v>
       </c>
       <c r="N31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37645187317313822</v>
+        <v>0.66907535117917694</v>
       </c>
       <c r="O31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39095722579532144</v>
+        <v>0.23302482987979001</v>
       </c>
       <c r="P31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65716197032243329</v>
+        <v>0.46423439149119483</v>
       </c>
       <c r="Q31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.45129238642379277</v>
+        <v>0.22587624287938501</v>
       </c>
       <c r="R31">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84861866864126745</v>
+        <v>0.54899311236617943</v>
       </c>
       <c r="S31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.41985991041521498</v>
+        <v>0.43116374220426035</v>
       </c>
       <c r="T31">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10329684581103005</v>
+        <v>2.4588640423791053E-2</v>
       </c>
       <c r="U31">
         <f t="shared" ca="1" si="3"/>
-        <v>0.21469057020458315</v>
+        <v>0.63701851905357376</v>
       </c>
       <c r="V31">
         <f t="shared" ca="1" si="3"/>
-        <v>2.976580821438779E-2</v>
+        <v>0.65791731686560961</v>
       </c>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
@@ -13368,87 +13368,87 @@
       </c>
       <c r="B32">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18879515842062222</v>
+        <v>0.59173403868614527</v>
       </c>
       <c r="D32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89040404307301302</v>
+        <v>0.2664351078282351</v>
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27017449518140824</v>
+        <v>0.60938684580571656</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28250580314743579</v>
+        <v>0.54517090144286273</v>
       </c>
       <c r="G32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16071041111967876</v>
+        <v>0.96441386611023805</v>
       </c>
       <c r="H32">
         <f t="shared" ca="1" si="5"/>
-        <v>5.7578411900335635E-2</v>
+        <v>0.97564138787817256</v>
       </c>
       <c r="I32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44435973417246599</v>
+        <v>0.78948112942525539</v>
       </c>
       <c r="J32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67409383764944575</v>
+        <v>0.82095457675724137</v>
       </c>
       <c r="K32">
         <f t="shared" ca="1" si="5"/>
-        <v>3.5869405715435732E-2</v>
+        <v>0.36424148143921942</v>
       </c>
       <c r="L32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59145057240575827</v>
+        <v>0.70650252876663344</v>
       </c>
       <c r="M32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7207496391857694</v>
+        <v>0.88943244456767867</v>
       </c>
       <c r="N32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68316980253846116</v>
+        <v>0.6401868882774675</v>
       </c>
       <c r="O32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89487899322677911</v>
+        <v>0.83668431963315626</v>
       </c>
       <c r="P32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37040916498507892</v>
+        <v>0.44329509610700746</v>
       </c>
       <c r="Q32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54626557999703773</v>
+        <v>4.4430282269267818E-2</v>
       </c>
       <c r="R32">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3152673417140196</v>
+        <v>0.96421133648802604</v>
       </c>
       <c r="S32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.24100528651089881</v>
+        <v>6.5574770337767596E-2</v>
       </c>
       <c r="T32">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1643137849141918</v>
+        <v>0.9257557525357728</v>
       </c>
       <c r="U32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.86191266294269153</v>
+        <v>0.52269315393646987</v>
       </c>
       <c r="V32">
         <f t="shared" ca="1" si="3"/>
-        <v>0.74113187391853907</v>
+        <v>0.73464717044735928</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -13457,87 +13457,87 @@
       </c>
       <c r="B33">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C33">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2977225643057819E-2</v>
+        <v>0.15384631611001265</v>
       </c>
       <c r="D33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86338398680777539</v>
+        <v>0.82498828722586159</v>
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21773011650292051</v>
+        <v>7.750525337159464E-2</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46936732756013977</v>
+        <v>0.35874236215668676</v>
       </c>
       <c r="G33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14668960842381007</v>
+        <v>0.23550962847175583</v>
       </c>
       <c r="H33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86211619895486946</v>
+        <v>0.36815609281511241</v>
       </c>
       <c r="I33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83820517165392838</v>
+        <v>0.18213772320773647</v>
       </c>
       <c r="J33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35350710797625273</v>
+        <v>0.35906032625827133</v>
       </c>
       <c r="K33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.537949615268833</v>
+        <v>5.9287865018182728E-2</v>
       </c>
       <c r="L33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13569663659365305</v>
+        <v>0.36219913580223717</v>
       </c>
       <c r="M33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49948118057596202</v>
+        <v>0.41584008680684836</v>
       </c>
       <c r="N33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31903943222011322</v>
+        <v>0.81616788881804969</v>
       </c>
       <c r="O33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.81113955700548535</v>
+        <v>0.3123802527702908</v>
       </c>
       <c r="P33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76634602192465862</v>
+        <v>5.429547842407445E-2</v>
       </c>
       <c r="Q33">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26812261504562218</v>
+        <v>0.88552971822189852</v>
       </c>
       <c r="R33">
         <f t="shared" ca="1" si="5"/>
-        <v>6.4922090210528527E-2</v>
+        <v>0.92080444098095904</v>
       </c>
       <c r="S33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.53835005685632042</v>
+        <v>0.65839403696228926</v>
       </c>
       <c r="T33">
         <f t="shared" ca="1" si="4"/>
-        <v>0.70935093580125119</v>
+        <v>0.62377677439272272</v>
       </c>
       <c r="U33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.39836209632846187</v>
+        <v>0.46877531833315067</v>
       </c>
       <c r="V33">
         <f t="shared" ca="1" si="3"/>
-        <v>0.16061101815091516</v>
+        <v>0.56810765409488828</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
@@ -13546,87 +13546,87 @@
       </c>
       <c r="B34">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="C34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42919393301448883</v>
+        <v>8.9006054844760429E-2</v>
       </c>
       <c r="D34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43580259429825019</v>
+        <v>0.75351265804684842</v>
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10914135103950096</v>
+        <v>0.68384574610207238</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25534673700325827</v>
+        <v>0.54119508053408238</v>
       </c>
       <c r="G34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95730404558102711</v>
+        <v>0.9920710543664305</v>
       </c>
       <c r="H34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.88661728870859424</v>
+        <v>0.35847126539923313</v>
       </c>
       <c r="I34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52046439986954718</v>
+        <v>0.72623711562884286</v>
       </c>
       <c r="J34">
         <f t="shared" ca="1" si="5"/>
-        <v>5.9953105657717387E-2</v>
+        <v>0.36891723799833409</v>
       </c>
       <c r="K34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99904056561982679</v>
+        <v>0.55007270588067847</v>
       </c>
       <c r="L34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.17104561263615925</v>
+        <v>0.81965220962957785</v>
       </c>
       <c r="M34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65838121324463095</v>
+        <v>0.73283345720071524</v>
       </c>
       <c r="N34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.24857244252039479</v>
+        <v>0.52618224099722688</v>
       </c>
       <c r="O34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65434724156975854</v>
+        <v>0.46843632651669154</v>
       </c>
       <c r="P34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73658872451749546</v>
+        <v>0.90056741322749123</v>
       </c>
       <c r="Q34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25916702708906658</v>
+        <v>0.15773282169524172</v>
       </c>
       <c r="R34">
         <f t="shared" ca="1" si="5"/>
-        <v>0.14058961354351585</v>
+        <v>0.53178750076821135</v>
       </c>
       <c r="S34">
         <f t="shared" ca="1" si="4"/>
-        <v>0.6109600019186997</v>
+        <v>0.24352178208335429</v>
       </c>
       <c r="T34">
         <f t="shared" ca="1" si="4"/>
-        <v>0.9045336967145664</v>
+        <v>9.2454160329424218E-2</v>
       </c>
       <c r="U34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.94293637349607262</v>
+        <v>0.52670202709282465</v>
       </c>
       <c r="V34">
         <f t="shared" ca="1" si="3"/>
-        <v>0.6803617637441326</v>
+        <v>0.34972400653601765</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
@@ -13635,87 +13635,87 @@
       </c>
       <c r="B35">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30168578820982861</v>
+        <v>0.93311974407890197</v>
       </c>
       <c r="D35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4056358966830339</v>
+        <v>0.58708318565448547</v>
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.5079304227396606</v>
+        <v>0.76290270123446458</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83667369992168794</v>
+        <v>2.9202003095372575E-2</v>
       </c>
       <c r="G35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66101405286757564</v>
+        <v>0.69077762669910825</v>
       </c>
       <c r="H35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42133965879168578</v>
+        <v>0.31946402211873626</v>
       </c>
       <c r="I35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55557532982058733</v>
+        <v>0.73062671025615189</v>
       </c>
       <c r="J35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.91431001737512074</v>
+        <v>0.56830610309876128</v>
       </c>
       <c r="K35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34410055211712365</v>
+        <v>0.86432495924411834</v>
       </c>
       <c r="L35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.63714106046735897</v>
+        <v>0.83559391676848227</v>
       </c>
       <c r="M35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10412005807612912</v>
+        <v>0.55758252711884548</v>
       </c>
       <c r="N35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39299275784510135</v>
+        <v>0.96513297373851548</v>
       </c>
       <c r="O35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49698399314959241</v>
+        <v>0.41496844022016655</v>
       </c>
       <c r="P35">
         <f t="shared" ca="1" si="5"/>
-        <v>9.2998406646275233E-3</v>
+        <v>2.733753373060388E-2</v>
       </c>
       <c r="Q35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.38333447228192719</v>
+        <v>0.89396254795880348</v>
       </c>
       <c r="R35">
         <f t="shared" ca="1" si="5"/>
-        <v>0.61855591817838307</v>
+        <v>0.72156017701477626</v>
       </c>
       <c r="S35">
         <f t="shared" ca="1" si="4"/>
-        <v>0.4425734779210444</v>
+        <v>0.14041380107484958</v>
       </c>
       <c r="T35">
         <f t="shared" ca="1" si="4"/>
-        <v>0.22372740389071544</v>
+        <v>8.7079281175393874E-2</v>
       </c>
       <c r="U35">
         <f t="shared" ca="1" si="3"/>
-        <v>0.59134600376710766</v>
+        <v>0.42240487736596533</v>
       </c>
       <c r="V35">
         <f t="shared" ca="1" si="3"/>
-        <v>6.50985137588731E-2</v>
+        <v>0.81608202092836701</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
@@ -13724,87 +13724,87 @@
       </c>
       <c r="B36">
         <f t="shared" ca="1" si="1"/>
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C36">
         <f t="shared" ca="1" si="5"/>
-        <v>5.8976600737027374E-3</v>
+        <v>0.96463921406044606</v>
       </c>
       <c r="D36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.13993784596599423</v>
+        <v>0.56789314560095405</v>
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76304163006690917</v>
+        <v>0.48487940979813615</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84035122615195601</v>
+        <v>0.68374961137002699</v>
       </c>
       <c r="G36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.73661504611200379</v>
+        <v>0.75696558934199953</v>
       </c>
       <c r="H36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49326134196704952</v>
+        <v>2.7321515512212513E-2</v>
       </c>
       <c r="I36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4030957533718359</v>
+        <v>2.572181185672251E-2</v>
       </c>
       <c r="J36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58576480962978994</v>
+        <v>0.21412888354687953</v>
       </c>
       <c r="K36">
         <f t="shared" ca="1" si="5"/>
-        <v>8.3237589083330343E-3</v>
+        <v>7.5552611951203552E-2</v>
       </c>
       <c r="L36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.95316382145504797</v>
+        <v>0.21606932778467203</v>
       </c>
       <c r="M36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8151468668279952</v>
+        <v>0.4023990830839802</v>
       </c>
       <c r="N36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.33558872938252726</v>
+        <v>0.29329684173736448</v>
       </c>
       <c r="O36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52640773911063354</v>
+        <v>0.22748628064847887</v>
       </c>
       <c r="P36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11731359270139785</v>
+        <v>0.22853621495822329</v>
       </c>
       <c r="Q36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2540909882996637</v>
+        <v>0.10944346771299018</v>
       </c>
       <c r="R36">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54740802652084863</v>
+        <v>8.4369221910106984E-2</v>
       </c>
       <c r="S36">
         <f t="shared" ca="1" si="4"/>
-        <v>0.10932566542055744</v>
+        <v>0.98609851393569181</v>
       </c>
       <c r="T36">
         <f t="shared" ca="1" si="4"/>
-        <v>0.99256488687522437</v>
+        <v>1.6700660647583909E-2</v>
       </c>
       <c r="U36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80540066976417013</v>
+        <v>0.92962846726677639</v>
       </c>
       <c r="V36">
         <f t="shared" ca="1" si="3"/>
-        <v>0.95449595343677052</v>
+        <v>0.18236510956861784</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
@@ -13813,87 +13813,87 @@
       </c>
       <c r="B37">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="C37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58379700671066259</v>
+        <v>0.72176980918866318</v>
       </c>
       <c r="D37">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0176352942512659E-2</v>
+        <v>0.72677191654307205</v>
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99281185432309771</v>
+        <v>0.30314405576044634</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="5"/>
-        <v>3.2864247487238263E-2</v>
+        <v>0.18721571430272943</v>
       </c>
       <c r="G37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71108900227127936</v>
+        <v>0.27156563649559506</v>
       </c>
       <c r="H37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.52545234342800029</v>
+        <v>0.24078222323177523</v>
       </c>
       <c r="I37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49150739064738347</v>
+        <v>0.22372085310479772</v>
       </c>
       <c r="J37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16032796500679969</v>
+        <v>0.56959484631902779</v>
       </c>
       <c r="K37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89914788467052476</v>
+        <v>0.2815550544434231</v>
       </c>
       <c r="L37">
         <f t="shared" ca="1" si="5"/>
-        <v>8.0886583330699979E-2</v>
+        <v>0.54671320529606404</v>
       </c>
       <c r="M37">
         <f t="shared" ca="1" si="5"/>
-        <v>8.4926305816184544E-2</v>
+        <v>0.6175882787143504</v>
       </c>
       <c r="N37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.59884809102937397</v>
+        <v>0.74882164748965896</v>
       </c>
       <c r="O37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62717744584907376</v>
+        <v>0.79516746260493698</v>
       </c>
       <c r="P37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34907073077726836</v>
+        <v>0.20403160126644337</v>
       </c>
       <c r="Q37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.56310447911796513</v>
+        <v>0.18976890114632206</v>
       </c>
       <c r="R37">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49589384056134633</v>
+        <v>0.26543907752701279</v>
       </c>
       <c r="S37">
         <f t="shared" ca="1" si="4"/>
-        <v>0.83562193473688895</v>
+        <v>0.25312708268470363</v>
       </c>
       <c r="T37">
         <f t="shared" ca="1" si="4"/>
-        <v>0.74589516884165397</v>
+        <v>0.63550786030678008</v>
       </c>
       <c r="U37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.30446177407068231</v>
+        <v>0.58279555207549116</v>
       </c>
       <c r="V37">
         <f t="shared" ca="1" si="3"/>
-        <v>0.48503246844794146</v>
+        <v>0.17263550409393236</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -13902,87 +13902,87 @@
       </c>
       <c r="B38">
         <f t="shared" ca="1" si="1"/>
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C38">
         <f t="shared" ca="1" si="5"/>
-        <v>7.2354241282717613E-2</v>
+        <v>0.82448634638694762</v>
       </c>
       <c r="D38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66098905721564072</v>
+        <v>0.12788405626243859</v>
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12127229744281509</v>
+        <v>0.30661203653765756</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68091950141543167</v>
+        <v>4.9750475384925608E-2</v>
       </c>
       <c r="G38">
         <f t="shared" ca="1" si="5"/>
-        <v>1.6495299647959261E-2</v>
+        <v>0.85236543984566226</v>
       </c>
       <c r="H38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57321182776138113</v>
+        <v>0.54353565928451719</v>
       </c>
       <c r="I38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.12126898891049942</v>
+        <v>0.54469328966372477</v>
       </c>
       <c r="J38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40522475270011604</v>
+        <v>0.22802793763412277</v>
       </c>
       <c r="K38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53183593875221979</v>
+        <v>0.42276739456650658</v>
       </c>
       <c r="L38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.39466387914944989</v>
+        <v>0.48111819022539326</v>
       </c>
       <c r="M38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.204989618775968</v>
+        <v>0.91239238874266815</v>
       </c>
       <c r="N38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20962778526475023</v>
+        <v>0.43207613171103043</v>
       </c>
       <c r="O38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79984287369139551</v>
+        <v>0.80163607439046636</v>
       </c>
       <c r="P38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.82935759286704469</v>
+        <v>0.34070863220591996</v>
       </c>
       <c r="Q38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.75556738491156283</v>
+        <v>0.41997698461083577</v>
       </c>
       <c r="R38">
         <f t="shared" ca="1" si="5"/>
-        <v>0.650837254411747</v>
+        <v>0.40198334226380295</v>
       </c>
       <c r="S38">
         <f t="shared" ca="1" si="4"/>
-        <v>6.9436944350707241E-2</v>
+        <v>0.86103778747823378</v>
       </c>
       <c r="T38">
         <f t="shared" ca="1" si="4"/>
-        <v>0.76176944000215863</v>
+        <v>0.49725145459270481</v>
       </c>
       <c r="U38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.85860922009050877</v>
+        <v>0.51825761794468084</v>
       </c>
       <c r="V38">
         <f t="shared" ca="1" si="3"/>
-        <v>0.2115418392135775</v>
+        <v>0.19978412114072985</v>
       </c>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.25">
@@ -13991,87 +13991,87 @@
       </c>
       <c r="B39">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.62233311196527286</v>
+        <v>0.2827118347587686</v>
       </c>
       <c r="D39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77110595673766558</v>
+        <v>0.31698224328708713</v>
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51067776670017884</v>
+        <v>0.81511570984463144</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18060648230092191</v>
+        <v>0.33626617738974007</v>
       </c>
       <c r="G39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58024394617241815</v>
+        <v>7.3873043674988148E-2</v>
       </c>
       <c r="H39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58683480849662295</v>
+        <v>0.58267382894765141</v>
       </c>
       <c r="I39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58633766500603146</v>
+        <v>0.56487273936452753</v>
       </c>
       <c r="J39">
         <f t="shared" ca="1" si="5"/>
-        <v>7.6545473756104987E-2</v>
+        <v>4.3331357841813745E-2</v>
       </c>
       <c r="K39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70371019426722503</v>
+        <v>0.94644693824170201</v>
       </c>
       <c r="L39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27472112282550809</v>
+        <v>0.13064581591115731</v>
       </c>
       <c r="M39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54148690774113439</v>
+        <v>0.75849673187998945</v>
       </c>
       <c r="N39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.55147674395101753</v>
+        <v>0.11916536560000246</v>
       </c>
       <c r="O39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26737290136619674</v>
+        <v>0.12226081707543335</v>
       </c>
       <c r="P39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.85095347604979221</v>
+        <v>0.79086376173647688</v>
       </c>
       <c r="Q39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27544553453353948</v>
+        <v>0.6218626900413079</v>
       </c>
       <c r="R39">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58602368628009793</v>
+        <v>0.81383198962984926</v>
       </c>
       <c r="S39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.26455255649447174</v>
+        <v>9.2686915633194866E-2</v>
       </c>
       <c r="T39">
         <f t="shared" ca="1" si="4"/>
-        <v>0.45577668683996331</v>
+        <v>0.45133095772287524</v>
       </c>
       <c r="U39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.96463762568193123</v>
+        <v>0.14124940493821669</v>
       </c>
       <c r="V39">
         <f t="shared" ca="1" si="3"/>
-        <v>0.88044315734943923</v>
+        <v>0.45839674156910892</v>
       </c>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.25">
@@ -14080,87 +14080,87 @@
       </c>
       <c r="B40">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76100352771135193</v>
+        <v>0.40067479278385998</v>
       </c>
       <c r="D40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79977750100877631</v>
+        <v>0.6374614401169435</v>
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99807735349119953</v>
+        <v>0.5801043425455471</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54339889942548925</v>
+        <v>0.82750302501664219</v>
       </c>
       <c r="G40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86316807633043224</v>
+        <v>5.1468282148006361E-2</v>
       </c>
       <c r="H40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94379907242938788</v>
+        <v>7.9813622945527185E-2</v>
       </c>
       <c r="I40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.26079373865859734</v>
+        <v>0.22020151637500596</v>
       </c>
       <c r="J40">
         <f t="shared" ca="1" si="5"/>
-        <v>4.0034548810864545E-2</v>
+        <v>0.1110492804317299</v>
       </c>
       <c r="K40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.41333690528054834</v>
+        <v>0.17603142969779784</v>
       </c>
       <c r="L40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.22510903936098625</v>
+        <v>7.1238124407911219E-2</v>
       </c>
       <c r="M40">
         <f t="shared" ca="1" si="5"/>
-        <v>2.9477481233513458E-2</v>
+        <v>0.1482202836468971</v>
       </c>
       <c r="N40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25993608659713774</v>
+        <v>0.37125066466118528</v>
       </c>
       <c r="O40">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0767084815752779E-2</v>
+        <v>0.70816053413489011</v>
       </c>
       <c r="P40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77458190968984186</v>
+        <v>0.44829068592091881</v>
       </c>
       <c r="Q40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.96556983076863745</v>
+        <v>0.1614925506867545</v>
       </c>
       <c r="R40">
         <f t="shared" ca="1" si="5"/>
-        <v>0.1235157126103682</v>
+        <v>8.2256715936698921E-2</v>
       </c>
       <c r="S40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.1599830323449295</v>
+        <v>0.23326402393780865</v>
       </c>
       <c r="T40">
         <f t="shared" ca="1" si="4"/>
-        <v>0.66108401258060245</v>
+        <v>0.21170786413297371</v>
       </c>
       <c r="U40">
         <f t="shared" ca="1" si="3"/>
-        <v>0.98404438427215668</v>
+        <v>2.5811588565691657E-2</v>
       </c>
       <c r="V40">
         <f t="shared" ca="1" si="3"/>
-        <v>0.56970836594534635</v>
+        <v>0.31490505354314302</v>
       </c>
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
@@ -14169,87 +14169,87 @@
       </c>
       <c r="B41">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19729024161571029</v>
+        <v>0.81985063640520861</v>
       </c>
       <c r="D41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.30661559566516527</v>
+        <v>0.55990643177556376</v>
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.98967466496117718</v>
+        <v>0.8224518718864654</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97763777259473339</v>
+        <v>0.40020352612024113</v>
       </c>
       <c r="G41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29842265311537008</v>
+        <v>7.7864375671308328E-2</v>
       </c>
       <c r="H41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.68536546358879891</v>
+        <v>0.56445761196529909</v>
       </c>
       <c r="I41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84180259055492479</v>
+        <v>0.46625441674557988</v>
       </c>
       <c r="J41">
         <f t="shared" ca="1" si="5"/>
-        <v>1.379014989562144E-2</v>
+        <v>0.43827731336477072</v>
       </c>
       <c r="K41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.57055377919297012</v>
+        <v>2.3662540532257581E-2</v>
       </c>
       <c r="L41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4197306615914338</v>
+        <v>8.5040078241644279E-2</v>
       </c>
       <c r="M41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86808753748147194</v>
+        <v>0.99815481297379283</v>
       </c>
       <c r="N41">
         <f t="shared" ca="1" si="5"/>
-        <v>7.0642953023035471E-2</v>
+        <v>0.18692867485151088</v>
       </c>
       <c r="O41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87036471237254975</v>
+        <v>0.25533901228329281</v>
       </c>
       <c r="P41">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5904692476483988E-2</v>
+        <v>9.5127491608617554E-2</v>
       </c>
       <c r="Q41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48348692537404658</v>
+        <v>0.59085038960816971</v>
       </c>
       <c r="R41">
         <f t="shared" ca="1" si="5"/>
-        <v>0.16803014898728896</v>
+        <v>0.12269322555087625</v>
       </c>
       <c r="S41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.87791886272784958</v>
+        <v>0.66266200235798001</v>
       </c>
       <c r="T41">
         <f t="shared" ca="1" si="4"/>
-        <v>0.42014637165289692</v>
+        <v>0.44544648988682156</v>
       </c>
       <c r="U41">
         <f t="shared" ca="1" si="3"/>
-        <v>0.7293797845658514</v>
+        <v>0.29979522592758678</v>
       </c>
       <c r="V41">
         <f t="shared" ca="1" si="3"/>
-        <v>0.80315196255389076</v>
+        <v>0.9279112148678883</v>
       </c>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
@@ -14258,87 +14258,87 @@
       </c>
       <c r="B42">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43169633603995194</v>
+        <v>0.7460610092865102</v>
       </c>
       <c r="D42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25843775628049515</v>
+        <v>0.44132174595675877</v>
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.78367596007314999</v>
+        <v>0.26279039498777224</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64606397947379235</v>
+        <v>0.94842336955323858</v>
       </c>
       <c r="G42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.621112533449941</v>
+        <v>6.5845855188670144E-2</v>
       </c>
       <c r="H42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.69637945743184593</v>
+        <v>0.88971460723577289</v>
       </c>
       <c r="I42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8360337030725643</v>
+        <v>0.31298973100641958</v>
       </c>
       <c r="J42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36890569234721959</v>
+        <v>0.18436607058403265</v>
       </c>
       <c r="K42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.29935692655944679</v>
+        <v>9.4519109364540443E-2</v>
       </c>
       <c r="L42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.67236094108349631</v>
+        <v>0.77986972958068057</v>
       </c>
       <c r="M42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.40739938958473609</v>
+        <v>0.41293447784958304</v>
       </c>
       <c r="N42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.94637935413040386</v>
+        <v>0.84687422953656111</v>
       </c>
       <c r="O42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.79516417045607146</v>
+        <v>0.79130210959069824</v>
       </c>
       <c r="P42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.84981800254985773</v>
+        <v>0.55102889316233183</v>
       </c>
       <c r="Q42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46796184780136107</v>
+        <v>0.79081480363081591</v>
       </c>
       <c r="R42">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71717118415761627</v>
+        <v>0.35460209904641982</v>
       </c>
       <c r="S42">
         <f t="shared" ca="1" si="4"/>
-        <v>0.54351843644382836</v>
+        <v>4.6118105795166175E-2</v>
       </c>
       <c r="T42">
         <f t="shared" ca="1" si="4"/>
-        <v>0.19018822809541402</v>
+        <v>0.29993443757627125</v>
       </c>
       <c r="U42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.50296142814954237</v>
+        <v>0.53690359718138025</v>
       </c>
       <c r="V42">
         <f t="shared" ca="1" si="3"/>
-        <v>0.35392937288964044</v>
+        <v>0.71626446319314463</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
@@ -14351,83 +14351,83 @@
       </c>
       <c r="C43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7741590137933857</v>
+        <v>0.25583119562996492</v>
       </c>
       <c r="D43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.4403486669997122</v>
+        <v>0.67912533115370388</v>
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.83345742220739483</v>
+        <v>0.93357193938713101</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.47639609214357437</v>
+        <v>0.36453459458840332</v>
       </c>
       <c r="G43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.32524099494709124</v>
+        <v>0.5625746208589617</v>
       </c>
       <c r="H43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.76946111079525559</v>
+        <v>0.71687029538910019</v>
       </c>
       <c r="I43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.43011683809476176</v>
+        <v>0.90922172231629983</v>
       </c>
       <c r="J43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36140965154260696</v>
+        <v>0.47139802882718307</v>
       </c>
       <c r="K43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37653280004561318</v>
+        <v>0.70240533167807573</v>
       </c>
       <c r="L43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.90206084860310232</v>
+        <v>0.90509750339652073</v>
       </c>
       <c r="M43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.19096168764678756</v>
+        <v>0.77797191301582547</v>
       </c>
       <c r="N43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77151529322415313</v>
+        <v>0.70111050346464587</v>
       </c>
       <c r="O43">
         <f t="shared" ca="1" si="5"/>
-        <v>6.145996653359842E-2</v>
+        <v>0.33113709241986589</v>
       </c>
       <c r="P43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66356778920386528</v>
+        <v>0.11116107061875413</v>
       </c>
       <c r="Q43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.66508046044277147</v>
+        <v>0.81403104749137922</v>
       </c>
       <c r="R43">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28628411427719125</v>
+        <v>0.9989864376348464</v>
       </c>
       <c r="S43">
         <f t="shared" ca="1" si="4"/>
-        <v>0.59046845901798883</v>
+        <v>0.46574915781320936</v>
       </c>
       <c r="T43">
         <f t="shared" ca="1" si="4"/>
-        <v>0.39749347455139317</v>
+        <v>0.83798372501840312</v>
       </c>
       <c r="U43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.11607847751234479</v>
+        <v>0.36797624427956699</v>
       </c>
       <c r="V43">
         <f t="shared" ca="1" si="3"/>
-        <v>0.57249937177857957</v>
+        <v>0.92212902068832414</v>
       </c>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
@@ -14436,87 +14436,87 @@
       </c>
       <c r="B44">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.36789315005443612</v>
+        <v>0.87780839583416037</v>
       </c>
       <c r="D44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.8765728483924593</v>
+        <v>4.459507236935456E-2</v>
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.7784428777128124</v>
+        <v>0.36983427689769011</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.87744952169184698</v>
+        <v>0.53408111829675486</v>
       </c>
       <c r="G44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21090272756900885</v>
+        <v>6.3574769775786022E-2</v>
       </c>
       <c r="H44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34506202795904206</v>
+        <v>0.53897984950783129</v>
       </c>
       <c r="I44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51803643026378599</v>
+        <v>0.71862587542336742</v>
       </c>
       <c r="J44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.86706287151003136</v>
+        <v>0.65440894310665787</v>
       </c>
       <c r="K44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.54643836643865673</v>
+        <v>0.85669564773163154</v>
       </c>
       <c r="L44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.92212059372827138</v>
+        <v>5.09018864232339E-2</v>
       </c>
       <c r="M44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51392337368255192</v>
+        <v>0.89680747224433022</v>
       </c>
       <c r="N44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.77740117535525277</v>
+        <v>4.8111311368359666E-2</v>
       </c>
       <c r="O44">
         <f t="shared" ca="1" si="5"/>
-        <v>2.2483959415174337E-2</v>
+        <v>0.89618255540341274</v>
       </c>
       <c r="P44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.64758552154500948</v>
+        <v>4.8140913055249146E-2</v>
       </c>
       <c r="Q44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.2762048823867701</v>
+        <v>0.88160701345451642</v>
       </c>
       <c r="R44">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99347818203379368</v>
+        <v>0.59118442854582132</v>
       </c>
       <c r="S44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.71677170742190499</v>
+        <v>0.3220842092543964</v>
       </c>
       <c r="T44">
         <f t="shared" ca="1" si="4"/>
-        <v>0.60596360100351998</v>
+        <v>0.94814619539872147</v>
       </c>
       <c r="U44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.91763858670929965</v>
+        <v>2.1066168632158933E-3</v>
       </c>
       <c r="V44">
         <f t="shared" ca="1" si="3"/>
-        <v>0.71345060430977048</v>
+        <v>0.97553455301057901</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
@@ -14525,87 +14525,87 @@
       </c>
       <c r="B45">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.27764835440208657</v>
+        <v>9.1783310936801588E-3</v>
       </c>
       <c r="D45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.65206015438424347</v>
+        <v>0.2140924865406798</v>
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="5"/>
-        <v>9.5725381059422854E-2</v>
+        <v>0.79230887621055079</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.51156949299637455</v>
+        <v>0.33282569716240962</v>
       </c>
       <c r="G45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97947088218805833</v>
+        <v>0.7090390609020818</v>
       </c>
       <c r="H45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.35430589930988809</v>
+        <v>0.63517830045288393</v>
       </c>
       <c r="I45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.46998754681724664</v>
+        <v>7.8149484929303736E-2</v>
       </c>
       <c r="J45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99727032375708913</v>
+        <v>0.57089677095292968</v>
       </c>
       <c r="K45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.58899128225229691</v>
+        <v>0.15043518640642872</v>
       </c>
       <c r="L45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.15921645670251416</v>
+        <v>0.70518324070323168</v>
       </c>
       <c r="M45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.80068482866070845</v>
+        <v>4.6598928653545313E-2</v>
       </c>
       <c r="N45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.70131173707298311</v>
+        <v>0.43491312771865809</v>
       </c>
       <c r="O45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.20910655570612746</v>
+        <v>0.42713929864135602</v>
       </c>
       <c r="P45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.71041099244072248</v>
+        <v>0.59788285545514164</v>
       </c>
       <c r="Q45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10113823450017845</v>
+        <v>0.6040543103436794</v>
       </c>
       <c r="R45">
         <f t="shared" ca="1" si="5"/>
-        <v>0.89812951215424031</v>
+        <v>0.56029800130832341</v>
       </c>
       <c r="S45">
         <f t="shared" ca="1" si="4"/>
-        <v>0.97634131157068194</v>
+        <v>0.36377933931876127</v>
       </c>
       <c r="T45">
         <f t="shared" ca="1" si="4"/>
-        <v>0.11553838823400597</v>
+        <v>0.95861427048065817</v>
       </c>
       <c r="U45">
         <f t="shared" ca="1" si="3"/>
-        <v>3.9641925383364529E-2</v>
+        <v>0.44846659758446039</v>
       </c>
       <c r="V45">
         <f t="shared" ca="1" si="3"/>
-        <v>7.0413029832885665E-2</v>
+        <v>0.98429906216849894</v>
       </c>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
@@ -14614,87 +14614,87 @@
       </c>
       <c r="B46">
         <f t="shared" ca="1" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.34940818670290619</v>
+        <v>0.49347002242256122</v>
       </c>
       <c r="D46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.53755864394617026</v>
+        <v>0.10652415265945647</v>
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.99793147036053587</v>
+        <v>0.88025302722929</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.49709883545993716</v>
+        <v>0.58534578799730075</v>
       </c>
       <c r="G46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42247656213345808</v>
+        <v>0.60788353331718648</v>
       </c>
       <c r="H46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37190773827291801</v>
+        <v>0.20198262897924157</v>
       </c>
       <c r="I46">
         <f t="shared" ca="1" si="5"/>
-        <v>3.7057190812954333E-2</v>
+        <v>0.28471695860641044</v>
       </c>
       <c r="J46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42323565282704734</v>
+        <v>0.15332743668391002</v>
       </c>
       <c r="K46">
         <f t="shared" ca="1" si="5"/>
-        <v>2.1588066002510065E-2</v>
+        <v>0.69163592684366881</v>
       </c>
       <c r="L46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.28728973546271552</v>
+        <v>0.9527623905780942</v>
       </c>
       <c r="M46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.72934719133515735</v>
+        <v>0.91086118306228725</v>
       </c>
       <c r="N46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.10786248239242535</v>
+        <v>0.31731182951848658</v>
       </c>
       <c r="O46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18529329890281665</v>
+        <v>0.49192086487049413</v>
       </c>
       <c r="P46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18382152058469925</v>
+        <v>4.028296157919109E-3</v>
       </c>
       <c r="Q46">
         <f t="shared" ca="1" si="5"/>
-        <v>0.97050271991654602</v>
+        <v>0.42987281132492017</v>
       </c>
       <c r="R46">
         <f t="shared" ref="R46:V50" ca="1" si="6">RAND()</f>
-        <v>0.43498403073750969</v>
+        <v>0.2397629799208687</v>
       </c>
       <c r="S46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49028157926333926</v>
+        <v>0.72076750396193734</v>
       </c>
       <c r="T46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.18516752809793713</v>
+        <v>0.40165130149955175</v>
       </c>
       <c r="U46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.42567908168332591</v>
+        <v>0.39457981390684482</v>
       </c>
       <c r="V46">
         <f t="shared" ca="1" si="6"/>
-        <v>0.76230483250291559</v>
+        <v>0.46534168972133971</v>
       </c>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
@@ -14703,87 +14703,87 @@
       </c>
       <c r="B47">
         <f t="shared" ca="1" si="1"/>
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C47">
         <f t="shared" ref="C47:R50" ca="1" si="7">RAND()</f>
-        <v>0.75001814606320893</v>
+        <v>0.7222665484956452</v>
       </c>
       <c r="D47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.79794634500220196</v>
+        <v>0.82510594352564814</v>
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.52392469971416833</v>
+        <v>0.46251659485100538</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.91884621781147902</v>
+        <v>0.33066967440137218</v>
       </c>
       <c r="G47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.58778579153165844</v>
+        <v>0.32306354031008322</v>
       </c>
       <c r="H47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.64640047413081758</v>
+        <v>0.21102216079401681</v>
       </c>
       <c r="I47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.69660188771216469</v>
+        <v>0.88088504653769306</v>
       </c>
       <c r="J47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.75777496255312582</v>
+        <v>0.76714278475703601</v>
       </c>
       <c r="K47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.87334109406826121</v>
+        <v>3.3670599310541949E-2</v>
       </c>
       <c r="L47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51983756961287109</v>
+        <v>0.62996214618925306</v>
       </c>
       <c r="M47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.22153090345775783</v>
+        <v>0.53241876865070503</v>
       </c>
       <c r="N47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.66411990248082065</v>
+        <v>0.33125961840083151</v>
       </c>
       <c r="O47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14591366261142047</v>
+        <v>0.11379122024371735</v>
       </c>
       <c r="P47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.86914442309623985</v>
+        <v>0.50066059727810208</v>
       </c>
       <c r="Q47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.15252726670939221</v>
+        <v>0.14567015216134271</v>
       </c>
       <c r="R47">
         <f t="shared" ca="1" si="7"/>
-        <v>0.95158276334985148</v>
+        <v>0.2354028278688286</v>
       </c>
       <c r="S47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.4896223748109142</v>
+        <v>0.42221198499662616</v>
       </c>
       <c r="T47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.49310692490927155</v>
+        <v>0.52568850882218265</v>
       </c>
       <c r="U47">
         <f t="shared" ca="1" si="6"/>
-        <v>0.54381220957717069</v>
+        <v>0.86034980668115257</v>
       </c>
       <c r="V47">
         <f t="shared" ca="1" si="6"/>
-        <v>7.8143934258358749E-2</v>
+        <v>0.22474750712609082</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
@@ -14792,87 +14792,87 @@
       </c>
       <c r="B48">
         <f t="shared" ca="1" si="1"/>
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C48">
         <f t="shared" ca="1" si="7"/>
-        <v>9.8249431913378538E-2</v>
+        <v>0.34258443614488221</v>
       </c>
       <c r="D48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.2335952301540819</v>
+        <v>0.70403206220536996</v>
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.29510523021694002</v>
+        <v>0.89357237253876876</v>
       </c>
       <c r="F48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.70410695090938735</v>
+        <v>0.15220031236156295</v>
       </c>
       <c r="G48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.67650780548301703</v>
+        <v>0.95203687004314452</v>
       </c>
       <c r="H48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.4595572040583259</v>
+        <v>0.10729762177043589</v>
       </c>
       <c r="I48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.46844772353393171</v>
+        <v>0.74433635549568067</v>
       </c>
       <c r="J48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.91441994372967683</v>
+        <v>0.92097395691797956</v>
       </c>
       <c r="K48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.76455393902003754</v>
+        <v>0.48852959163199727</v>
       </c>
       <c r="L48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14654039155453957</v>
+        <v>0.58483390409698821</v>
       </c>
       <c r="M48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78139166381261982</v>
+        <v>0.14428734226884132</v>
       </c>
       <c r="N48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.83814322785098871</v>
+        <v>0.32523939865048157</v>
       </c>
       <c r="O48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.30789390150345808</v>
+        <v>0.43161946637561233</v>
       </c>
       <c r="P48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51121068844458917</v>
+        <v>0.49214601112111234</v>
       </c>
       <c r="Q48">
         <f t="shared" ca="1" si="7"/>
-        <v>3.6878563510904239E-2</v>
+        <v>0.66998893195598586</v>
       </c>
       <c r="R48">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45143134774823812</v>
+        <v>0.6587034070844916</v>
       </c>
       <c r="S48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.72957705658840821</v>
+        <v>0.11806036443453904</v>
       </c>
       <c r="T48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39516538003779689</v>
+        <v>0.95972298488637742</v>
       </c>
       <c r="U48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39262903250963277</v>
+        <v>0.79395319505639428</v>
       </c>
       <c r="V48">
         <f t="shared" ca="1" si="6"/>
-        <v>0.48324905421659681</v>
+        <v>0.32022928874352163</v>
       </c>
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.25">
@@ -14881,87 +14881,87 @@
       </c>
       <c r="B49">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="C49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51638325863140977</v>
+        <v>0.57915415547397464</v>
       </c>
       <c r="D49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45942976526676993</v>
+        <v>0.77739791327125507</v>
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.17687374335409467</v>
+        <v>0.55813965511361419</v>
       </c>
       <c r="F49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12969157862240888</v>
+        <v>0.78485086506903834</v>
       </c>
       <c r="G49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.9097923581262618</v>
+        <v>0.71742602326366067</v>
       </c>
       <c r="H49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.49835386603322085</v>
+        <v>0.58627345334686354</v>
       </c>
       <c r="I49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.92962812435867148</v>
+        <v>0.47894427568222864</v>
       </c>
       <c r="J49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.12638046691724902</v>
+        <v>0.37528136333947448</v>
       </c>
       <c r="K49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.36078875840268976</v>
+        <v>0.36116753946494584</v>
       </c>
       <c r="L49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.51111604995801507</v>
+        <v>9.3597077369374282E-2</v>
       </c>
       <c r="M49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.23454055787515771</v>
+        <v>0.43483187943474644</v>
       </c>
       <c r="N49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.38449128479408823</v>
+        <v>0.14404001067862315</v>
       </c>
       <c r="O49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.45618442081199051</v>
+        <v>0.86646946285860837</v>
       </c>
       <c r="P49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.95630923538712331</v>
+        <v>0.86479636603956223</v>
       </c>
       <c r="Q49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.6907512209128791</v>
+        <v>0.65219942324833824</v>
       </c>
       <c r="R49">
         <f t="shared" ca="1" si="7"/>
-        <v>0.32573960371623911</v>
+        <v>0.43674381660076667</v>
       </c>
       <c r="S49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.23577109302717636</v>
+        <v>0.54378700605742569</v>
       </c>
       <c r="T49">
         <f t="shared" ca="1" si="6"/>
-        <v>8.9157943661215211E-2</v>
+        <v>0.80615356638546387</v>
       </c>
       <c r="U49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.60328917984275143</v>
+        <v>0.77842437541901921</v>
       </c>
       <c r="V49">
         <f t="shared" ca="1" si="6"/>
-        <v>0.737555620193595</v>
+        <v>0.70775180239278934</v>
       </c>
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.25">
@@ -14970,87 +14970,87 @@
       </c>
       <c r="B50">
         <f t="shared" ca="1" si="1"/>
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.84039516244214607</v>
+        <v>0.31685791485294612</v>
       </c>
       <c r="D50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.14363748428416445</v>
+        <v>5.6409806719558642E-2</v>
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.73525036719187842</v>
+        <v>0.464978839895137</v>
       </c>
       <c r="F50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.54354692876454314</v>
+        <v>0.4801766847919483</v>
       </c>
       <c r="G50">
         <f t="shared" ca="1" si="7"/>
-        <v>9.3531432018322147E-2</v>
+        <v>0.1029789508578457</v>
       </c>
       <c r="H50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.49290988162348215</v>
+        <v>0.47013788438461601</v>
       </c>
       <c r="I50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.19759095760617384</v>
+        <v>9.1800622987729508E-2</v>
       </c>
       <c r="J50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.409881070105655</v>
+        <v>0.14872813534833973</v>
       </c>
       <c r="K50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.77695877418573789</v>
+        <v>0.81645475011833646</v>
       </c>
       <c r="L50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.47706472224143615</v>
+        <v>0.641590129387129</v>
       </c>
       <c r="M50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.85553759379521022</v>
+        <v>0.88813657334016438</v>
       </c>
       <c r="N50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.25639263309058113</v>
+        <v>0.27528362610828871</v>
       </c>
       <c r="O50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.78567396796124078</v>
+        <v>0.31823182837868957</v>
       </c>
       <c r="P50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.68082492407696871</v>
+        <v>0.37187129154652421</v>
       </c>
       <c r="Q50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.7521789284398136</v>
+        <v>0.61774099842018071</v>
       </c>
       <c r="R50">
         <f t="shared" ca="1" si="7"/>
-        <v>0.55196794433237606</v>
+        <v>0.26260636361008716</v>
       </c>
       <c r="S50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.36168063712542364</v>
+        <v>0.86455235074594872</v>
       </c>
       <c r="T50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.22177654909815825</v>
+        <v>0.14155852243808931</v>
       </c>
       <c r="U50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.74743386665296285</v>
+        <v>0.40148293921236899</v>
       </c>
       <c r="V50">
         <f t="shared" ca="1" si="6"/>
-        <v>0.97691625769999535</v>
+        <v>0.17906096113640513</v>
       </c>
     </row>
   </sheetData>
